--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1542,7 +1542,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>covid19AssessmentEncounter</t>
@@ -1598,6 +1598,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-symptom)
+</t>
+  </si>
+  <si>
+    <t>covid19ComorbidityPresent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-comorbidity-present)
 </t>
   </si>
   <si>
@@ -2008,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN139"/>
+  <dimension ref="A1:AN140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13303,10 +13310,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>76</v>
@@ -13422,7 +13429,7 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>76</v>
@@ -13654,7 +13661,7 @@
         <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>76</v>
@@ -13767,10 +13774,10 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -13873,15 +13880,17 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="C104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>88</v>
@@ -13896,20 +13905,18 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>76</v>
       </c>
@@ -13933,13 +13940,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -13957,13 +13964,13 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>464</v>
@@ -13975,10 +13982,10 @@
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
@@ -13989,7 +13996,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14000,7 +14007,7 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>76</v>
@@ -14012,18 +14019,20 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14047,13 +14056,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14071,16 +14080,16 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>100</v>
@@ -14089,10 +14098,10 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14103,11 +14112,9 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14116,7 +14123,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14128,15 +14135,17 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>76</v>
@@ -14185,7 +14194,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14194,10 +14203,10 @@
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>411</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>76</v>
@@ -14206,7 +14215,7 @@
         <v>412</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14217,9 +14226,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="C107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14240,13 +14251,13 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14297,28 +14308,28 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14329,18 +14340,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>76</v>
@@ -14352,17 +14363,15 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14411,19 +14420,19 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
@@ -14443,11 +14452,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14460,26 +14469,24 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N109" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>76</v>
       </c>
@@ -14527,7 +14534,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14545,7 +14552,7 @@
         <v>76</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>76</v>
@@ -14559,42 +14566,42 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
@@ -14604,7 +14611,7 @@
         <v>76</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>76</v>
@@ -14643,28 +14650,28 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
@@ -14675,11 +14682,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14698,19 +14705,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14720,7 +14727,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14735,13 +14742,13 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>76</v>
@@ -14759,7 +14766,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -14777,10 +14784,10 @@
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14791,7 +14798,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14802,7 +14809,7 @@
         <v>77</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>76</v>
@@ -14814,17 +14821,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M112" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N112" t="s" s="2">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14834,7 +14843,7 @@
         <v>76</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>76</v>
+        <v>521</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>76</v>
@@ -14849,13 +14858,13 @@
         <v>76</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14873,13 +14882,13 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14891,21 +14900,21 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14916,7 +14925,7 @@
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>76</v>
@@ -14928,18 +14937,18 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14987,13 +14996,13 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -15005,21 +15014,21 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15042,16 +15051,16 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15101,7 +15110,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15110,7 +15119,7 @@
         <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>100</v>
@@ -15119,10 +15128,10 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15133,7 +15142,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15156,20 +15165,18 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15193,13 +15200,13 @@
         <v>76</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>76</v>
@@ -15217,7 +15224,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15226,7 +15233,7 @@
         <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>100</v>
@@ -15235,21 +15242,21 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15272,19 +15279,19 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15309,13 +15316,13 @@
         <v>76</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15333,7 +15340,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15351,7 +15358,7 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>159</v>
@@ -15360,12 +15367,12 @@
         <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15376,7 +15383,7 @@
         <v>77</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>76</v>
@@ -15388,18 +15395,20 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
       </c>
@@ -15423,38 +15432,40 @@
         <v>76</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB117" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>100</v>
@@ -15463,10 +15474,10 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>76</v>
@@ -15479,9 +15490,7 @@
       <c r="A118" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B118" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15490,7 +15499,7 @@
         <v>77</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>76</v>
@@ -15502,7 +15511,7 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>521</v>
+        <v>252</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>461</v>
@@ -15549,16 +15558,14 @@
         <v>76</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB118" s="2"/>
       <c r="AC118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE118" t="s" s="2">
         <v>460</v>
@@ -16057,9 +16064,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="C123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16080,20 +16089,18 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>177</v>
+        <v>531</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16117,13 +16124,13 @@
         <v>76</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -16141,13 +16148,13 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>464</v>
@@ -16159,10 +16166,10 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16173,7 +16180,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16184,7 +16191,7 @@
         <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>76</v>
@@ -16196,18 +16203,20 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16231,13 +16240,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16255,16 +16264,16 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>100</v>
@@ -16273,10 +16282,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16287,11 +16296,9 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16300,7 +16307,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16312,15 +16319,17 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16369,7 +16378,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16378,10 +16387,10 @@
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>411</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>76</v>
@@ -16390,7 +16399,7 @@
         <v>412</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16401,9 +16410,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B126" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16424,13 +16435,13 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16481,28 +16492,28 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16513,18 +16524,18 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>76</v>
@@ -16536,17 +16547,15 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>76</v>
@@ -16595,19 +16604,19 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
@@ -16627,11 +16636,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16644,26 +16653,24 @@
         <v>76</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N128" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
       </c>
@@ -16711,7 +16718,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -16729,7 +16736,7 @@
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>76</v>
@@ -16743,42 +16750,42 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -16788,7 +16795,7 @@
         <v>76</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>76</v>
@@ -16827,28 +16834,28 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -16859,11 +16866,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16882,19 +16889,19 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16904,7 +16911,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16919,13 +16926,13 @@
         <v>76</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -16943,7 +16950,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -16961,10 +16968,10 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16975,7 +16982,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16986,7 +16993,7 @@
         <v>77</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>76</v>
@@ -16998,17 +17005,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N131" t="s" s="2">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17018,7 +17027,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>76</v>
+        <v>534</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17033,13 +17042,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17057,13 +17066,13 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -17075,21 +17084,21 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17100,7 +17109,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17112,18 +17121,18 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17171,13 +17180,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17189,21 +17198,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17226,16 +17235,16 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17285,7 +17294,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -17294,7 +17303,7 @@
         <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>100</v>
@@ -17303,10 +17312,10 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
@@ -17317,7 +17326,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17340,20 +17349,18 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17377,13 +17384,13 @@
         <v>76</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
@@ -17401,7 +17408,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17410,7 +17417,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17419,21 +17426,21 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17456,19 +17463,19 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -17493,13 +17500,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17517,7 +17524,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17535,7 +17542,7 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>159</v>
@@ -17544,12 +17551,12 @@
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17557,10 +17564,10 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>76</v>
@@ -17572,18 +17579,20 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N136" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
       </c>
@@ -17607,38 +17616,40 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB136" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>100</v>
@@ -17647,10 +17658,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17663,9 +17674,7 @@
       <c r="A137" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B137" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17674,7 +17683,7 @@
         <v>88</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17686,7 +17695,7 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>534</v>
+        <v>252</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>461</v>
@@ -17733,16 +17742,14 @@
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB137" s="2"/>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>460</v>
@@ -17777,15 +17784,17 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B138" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>88</v>
@@ -17800,20 +17809,18 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>177</v>
+        <v>536</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17837,13 +17844,13 @@
         <v>76</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>76</v>
@@ -17861,13 +17868,13 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>464</v>
@@ -17879,10 +17886,10 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17893,7 +17900,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17904,7 +17911,7 @@
         <v>77</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>76</v>
@@ -17916,18 +17923,20 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17951,13 +17960,13 @@
         <v>76</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17975,16 +17984,16 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>100</v>
@@ -17993,15 +18002,129 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK140" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AL139" t="s" s="2">
+      <c r="AL140" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AM139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN139" t="s" s="2">
+      <c r="AM140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN140" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1555,15 +1555,7 @@
     <t>covid19ReasonforAssessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-reason-for-Assessment)
-</t>
-  </si>
-  <si>
     <t>otherReasonforAssessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-other-reason-for-Assessment)
-</t>
   </si>
   <si>
     <t>covid19Presentation</t>
@@ -12513,7 +12505,7 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>494</v>
+        <v>252</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>461</v>
@@ -12607,7 +12599,7 @@
         <v>460</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>76</v>
@@ -12629,7 +12621,7 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>496</v>
+        <v>252</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>461</v>
@@ -12723,7 +12715,7 @@
         <v>460</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>76</v>
@@ -12745,7 +12737,7 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>461</v>
@@ -12839,7 +12831,7 @@
         <v>460</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>76</v>
@@ -12861,7 +12853,7 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>461</v>
@@ -12955,7 +12947,7 @@
         <v>460</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>76</v>
@@ -12977,7 +12969,7 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>461</v>
@@ -13071,7 +13063,7 @@
         <v>460</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>76</v>
@@ -13093,7 +13085,7 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>461</v>
@@ -13187,7 +13179,7 @@
         <v>460</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>76</v>
@@ -13209,7 +13201,7 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>461</v>
@@ -13303,7 +13295,7 @@
         <v>460</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>76</v>
@@ -13325,7 +13317,7 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>461</v>
@@ -13419,7 +13411,7 @@
         <v>460</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>76</v>
@@ -13441,7 +13433,7 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>461</v>
@@ -13535,7 +13527,7 @@
         <v>460</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>76</v>
@@ -13557,7 +13549,7 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>461</v>
@@ -13651,7 +13643,7 @@
         <v>460</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>76</v>
@@ -13673,7 +13665,7 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>461</v>
@@ -13767,7 +13759,7 @@
         <v>460</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>76</v>
@@ -13789,7 +13781,7 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>461</v>
@@ -13883,7 +13875,7 @@
         <v>460</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>76</v>
@@ -13905,7 +13897,7 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>461</v>
@@ -14229,7 +14221,7 @@
         <v>405</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>76</v>
@@ -14727,7 +14719,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14843,7 +14835,7 @@
         <v>76</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>76</v>
@@ -15603,7 +15595,7 @@
         <v>460</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
@@ -15625,7 +15617,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>461</v>
@@ -15719,7 +15711,7 @@
         <v>460</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>76</v>
@@ -15741,7 +15733,7 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>461</v>
@@ -15835,7 +15827,7 @@
         <v>460</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>76</v>
@@ -15857,7 +15849,7 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>461</v>
@@ -15951,7 +15943,7 @@
         <v>460</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>76</v>
@@ -15973,7 +15965,7 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>461</v>
@@ -16067,7 +16059,7 @@
         <v>460</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>76</v>
@@ -16089,7 +16081,7 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>461</v>
@@ -16413,7 +16405,7 @@
         <v>405</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
@@ -16911,7 +16903,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -17027,7 +17019,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17787,7 +17779,7 @@
         <v>460</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
@@ -17809,7 +17801,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T19:58:19+00:00</t>
+    <t>2022-09-03T20:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1542,7 +1542,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>6</t>
+    <t>8</t>
   </si>
   <si>
     <t>covid19AssessmentEncounter</t>
@@ -1618,6 +1618,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-diagnosis)
+</t>
+  </si>
+  <si>
+    <t>covid19VaccineDoseReceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-vaccine-dose-received)
 </t>
   </si>
   <si>
@@ -2007,7 +2014,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN140"/>
+  <dimension ref="A1:AN141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13766,10 +13773,10 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -13988,15 +13995,17 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B105" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="C105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>88</v>
@@ -14011,20 +14020,18 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14048,13 +14055,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14072,13 +14079,13 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>464</v>
@@ -14090,10 +14097,10 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14104,7 +14111,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14115,7 +14122,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14127,18 +14134,20 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14162,13 +14171,13 @@
         <v>76</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>76</v>
@@ -14186,16 +14195,16 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>100</v>
@@ -14204,10 +14213,10 @@
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14218,11 +14227,9 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14231,7 +14238,7 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
@@ -14243,15 +14250,17 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14300,7 +14309,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14309,10 +14318,10 @@
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>411</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
@@ -14321,7 +14330,7 @@
         <v>412</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14332,9 +14341,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="C108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14355,13 +14366,13 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14412,28 +14423,28 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14444,18 +14455,18 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14467,17 +14478,15 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14526,19 +14535,19 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>76</v>
@@ -14558,11 +14567,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14575,26 +14584,24 @@
         <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N110" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14642,7 +14649,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14660,7 +14667,7 @@
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>76</v>
@@ -14674,42 +14681,42 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14719,7 +14726,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14758,28 +14765,28 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14790,11 +14797,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14813,19 +14820,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14835,7 +14842,7 @@
         <v>76</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>76</v>
@@ -14850,13 +14857,13 @@
         <v>76</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14874,7 +14881,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -14892,10 +14899,10 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
@@ -14906,7 +14913,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14917,7 +14924,7 @@
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>76</v>
@@ -14929,17 +14936,19 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M113" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N113" t="s" s="2">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -14949,7 +14958,7 @@
         <v>76</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>76</v>
+        <v>521</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>76</v>
@@ -14964,13 +14973,13 @@
         <v>76</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>76</v>
@@ -14988,13 +14997,13 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -15006,21 +15015,21 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15031,7 +15040,7 @@
         <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>76</v>
@@ -15043,18 +15052,18 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15102,13 +15111,13 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>76</v>
@@ -15120,21 +15129,21 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15157,16 +15166,16 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15216,7 +15225,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15225,7 +15234,7 @@
         <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>100</v>
@@ -15234,10 +15243,10 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15248,7 +15257,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15271,20 +15280,18 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15308,13 +15315,13 @@
         <v>76</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15332,7 +15339,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15341,7 +15348,7 @@
         <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>100</v>
@@ -15350,21 +15357,21 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15387,19 +15394,19 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15424,13 +15431,13 @@
         <v>76</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>76</v>
@@ -15448,7 +15455,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15466,7 +15473,7 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>159</v>
@@ -15475,12 +15482,12 @@
         <v>76</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15491,7 +15498,7 @@
         <v>77</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>76</v>
@@ -15503,18 +15510,20 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15538,38 +15547,40 @@
         <v>76</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB118" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>100</v>
@@ -15578,10 +15589,10 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
@@ -15594,9 +15605,7 @@
       <c r="A119" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B119" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
         <v>76</v>
       </c>
@@ -15605,7 +15614,7 @@
         <v>77</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>76</v>
@@ -15617,7 +15626,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>521</v>
+        <v>252</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>461</v>
@@ -15664,16 +15673,14 @@
         <v>76</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB119" s="2"/>
       <c r="AC119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE119" t="s" s="2">
         <v>460</v>
@@ -16172,9 +16179,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B124" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="C124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16195,20 +16204,18 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>177</v>
+        <v>531</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16232,13 +16239,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16256,13 +16263,13 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>464</v>
@@ -16274,10 +16281,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16288,7 +16295,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16299,7 +16306,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16311,18 +16318,20 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16346,13 +16355,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16370,16 +16379,16 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16388,10 +16397,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16402,11 +16411,9 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16415,7 +16422,7 @@
         <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16427,15 +16434,17 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16484,7 +16493,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16493,10 +16502,10 @@
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>411</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
@@ -16505,7 +16514,7 @@
         <v>412</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16516,9 +16525,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
@@ -16539,13 +16550,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16596,28 +16607,28 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16628,18 +16639,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>76</v>
@@ -16651,17 +16662,15 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16710,19 +16719,19 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
@@ -16742,11 +16751,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16759,26 +16768,24 @@
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N129" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16826,7 +16833,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16844,7 +16851,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -16858,42 +16865,42 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16903,7 +16910,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16942,28 +16949,28 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16974,11 +16981,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16997,19 +17004,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17019,7 +17026,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17034,13 +17041,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17058,7 +17065,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17076,10 +17083,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17090,7 +17097,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17101,7 +17108,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17113,17 +17120,19 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M132" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N132" t="s" s="2">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17133,7 +17142,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>76</v>
+        <v>534</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17148,13 +17157,13 @@
         <v>76</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>76</v>
@@ -17172,13 +17181,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17190,21 +17199,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17215,7 +17224,7 @@
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17227,18 +17236,18 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17286,13 +17295,13 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -17304,21 +17313,21 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17341,16 +17350,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17400,7 +17409,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17409,7 +17418,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17418,10 +17427,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17432,7 +17441,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17455,20 +17464,18 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17492,13 +17499,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17516,7 +17523,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17525,7 +17532,7 @@
         <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>100</v>
@@ -17534,21 +17541,21 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17571,19 +17578,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17608,13 +17615,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17632,7 +17639,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17650,7 +17657,7 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>159</v>
@@ -17659,12 +17666,12 @@
         <v>76</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17672,10 +17679,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17687,18 +17694,20 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N137" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17722,38 +17731,40 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB137" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>100</v>
@@ -17762,10 +17773,10 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17778,9 +17789,7 @@
       <c r="A138" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B138" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17789,7 +17798,7 @@
         <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17801,7 +17810,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>534</v>
+        <v>252</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>
@@ -17848,16 +17857,14 @@
         <v>76</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB138" s="2"/>
       <c r="AC138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>460</v>
@@ -17892,15 +17899,17 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B139" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="C139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>88</v>
@@ -17915,20 +17924,18 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>177</v>
+        <v>536</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17952,13 +17959,13 @@
         <v>76</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17976,13 +17983,13 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>464</v>
@@ -17994,10 +18001,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18008,7 +18015,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18019,7 +18026,7 @@
         <v>77</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>76</v>
@@ -18031,18 +18038,20 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18066,13 +18075,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18090,16 +18099,16 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18108,15 +18117,129 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK141" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AL140" t="s" s="2">
+      <c r="AL141" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AM140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN140" t="s" s="2">
+      <c r="AM141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN141" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:16:47+00:00</t>
+    <t>2022-09-03T21:25:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:25:02+00:00</t>
+    <t>2022-09-04T09:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T09:55:59+00:00</t>
+    <t>2022-09-04T13:23:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:23:45+00:00</t>
+    <t>2022-09-04T13:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:33:44+00:00</t>
+    <t>2022-09-04T13:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1542,7 +1542,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>8</t>
+    <t>7</t>
   </si>
   <si>
     <t>covid19AssessmentEncounter</t>
@@ -1632,13 +1632,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-assessment-vaccination)
-</t>
-  </si>
-  <si>
-    <t>covid19PatientOutcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-patient-outcome)
 </t>
   </si>
   <si>
@@ -2014,7 +2007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN141"/>
+  <dimension ref="A1:AN140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13995,17 +13988,15 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>88</v>
@@ -14020,18 +14011,20 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>518</v>
+        <v>177</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14055,13 +14048,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14079,13 +14072,13 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>464</v>
@@ -14097,10 +14090,10 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14111,7 +14104,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14122,7 +14115,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14134,20 +14127,18 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14171,13 +14162,13 @@
         <v>76</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>76</v>
@@ -14195,16 +14186,16 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>100</v>
@@ -14213,10 +14204,10 @@
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14227,9 +14218,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="C107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14238,7 +14231,7 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
@@ -14250,17 +14243,15 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14309,7 +14300,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14318,10 +14309,10 @@
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
@@ -14330,7 +14321,7 @@
         <v>412</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14341,11 +14332,9 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14366,13 +14355,13 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14423,28 +14412,28 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14455,18 +14444,18 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14478,15 +14467,17 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14535,19 +14526,19 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>76</v>
@@ -14567,11 +14558,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14584,24 +14575,26 @@
         <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14649,7 +14642,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14667,7 +14660,7 @@
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>76</v>
@@ -14681,42 +14674,42 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14726,7 +14719,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14765,28 +14758,28 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14797,11 +14790,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14820,19 +14813,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14842,7 +14835,7 @@
         <v>76</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>76</v>
@@ -14857,13 +14850,13 @@
         <v>76</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14881,7 +14874,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -14899,10 +14892,10 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
@@ -14913,7 +14906,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14924,7 +14917,7 @@
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>76</v>
@@ -14936,19 +14929,17 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -14958,7 +14949,7 @@
         <v>76</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>521</v>
+        <v>76</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>76</v>
@@ -14973,13 +14964,13 @@
         <v>76</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>76</v>
@@ -14997,13 +14988,13 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -15015,21 +15006,21 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15040,7 +15031,7 @@
         <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>76</v>
@@ -15052,18 +15043,18 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15111,13 +15102,13 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>76</v>
@@ -15129,21 +15120,21 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15166,16 +15157,16 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15225,7 +15216,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15234,7 +15225,7 @@
         <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>100</v>
@@ -15243,10 +15234,10 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15257,7 +15248,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15280,18 +15271,20 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15315,13 +15308,13 @@
         <v>76</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15339,7 +15332,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15348,7 +15341,7 @@
         <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>100</v>
@@ -15357,21 +15350,21 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15394,19 +15387,19 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15431,13 +15424,13 @@
         <v>76</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>76</v>
@@ -15455,7 +15448,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15473,7 +15466,7 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>159</v>
@@ -15482,12 +15475,12 @@
         <v>76</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15498,7 +15491,7 @@
         <v>77</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>76</v>
@@ -15510,20 +15503,18 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15547,40 +15538,38 @@
         <v>76</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB118" s="2"/>
       <c r="AC118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>100</v>
@@ -15589,10 +15578,10 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
@@ -15605,7 +15594,9 @@
       <c r="A119" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
       </c>
@@ -15614,7 +15605,7 @@
         <v>77</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>76</v>
@@ -15626,7 +15617,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>252</v>
+        <v>521</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>461</v>
@@ -15673,14 +15664,16 @@
         <v>76</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB119" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
         <v>460</v>
@@ -16179,11 +16172,9 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16204,18 +16195,20 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>531</v>
+        <v>177</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16239,13 +16232,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16263,13 +16256,13 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>464</v>
@@ -16281,10 +16274,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16295,7 +16288,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16306,7 +16299,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16318,20 +16311,18 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16355,13 +16346,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16379,16 +16370,16 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16397,10 +16388,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16411,9 +16402,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B126" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16422,7 +16415,7 @@
         <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16434,17 +16427,15 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16493,7 +16484,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16502,10 +16493,10 @@
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
@@ -16514,7 +16505,7 @@
         <v>412</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16525,11 +16516,9 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
@@ -16550,13 +16539,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16607,28 +16596,28 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16639,18 +16628,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>76</v>
@@ -16662,15 +16651,17 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16719,19 +16710,19 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
@@ -16751,11 +16742,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16768,24 +16759,26 @@
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16833,7 +16826,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16851,7 +16844,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -16865,42 +16858,42 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16910,7 +16903,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>76</v>
+        <v>531</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16949,28 +16942,28 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16981,11 +16974,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17004,19 +16997,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17026,7 +17019,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17041,13 +17034,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17065,7 +17058,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17083,10 +17076,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17097,7 +17090,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17108,7 +17101,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17120,19 +17113,17 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17142,7 +17133,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>534</v>
+        <v>76</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17157,13 +17148,13 @@
         <v>76</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>76</v>
@@ -17181,13 +17172,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17199,21 +17190,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17224,7 +17215,7 @@
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17236,18 +17227,18 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17295,13 +17286,13 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -17313,21 +17304,21 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17350,16 +17341,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17409,7 +17400,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17418,7 +17409,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17427,10 +17418,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17441,7 +17432,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17464,18 +17455,20 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17499,13 +17492,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17523,7 +17516,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17532,7 +17525,7 @@
         <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>100</v>
@@ -17541,21 +17534,21 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17578,19 +17571,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17615,13 +17608,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17639,7 +17632,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17657,7 +17650,7 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>159</v>
@@ -17666,12 +17659,12 @@
         <v>76</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17679,10 +17672,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17694,20 +17687,18 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17731,40 +17722,38 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB137" s="2"/>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>100</v>
@@ -17773,10 +17762,10 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17789,7 +17778,9 @@
       <c r="A138" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B138" s="2"/>
+      <c r="B138" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17798,7 +17789,7 @@
         <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17810,7 +17801,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>252</v>
+        <v>534</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>
@@ -17857,14 +17848,16 @@
         <v>76</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB138" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>460</v>
@@ -17899,17 +17892,15 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>88</v>
@@ -17924,18 +17915,20 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>536</v>
+        <v>177</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17959,13 +17952,13 @@
         <v>76</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17983,13 +17976,13 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>464</v>
@@ -18001,10 +17994,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18015,7 +18008,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18026,7 +18019,7 @@
         <v>77</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>76</v>
@@ -18038,20 +18031,18 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18075,13 +18066,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18099,16 +18090,16 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18117,129 +18108,15 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN141" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:49:49+00:00</t>
+    <t>2022-09-04T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T14:40:23+00:00</t>
+    <t>2022-09-04T15:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:15:31+00:00</t>
+    <t>2022-09-04T15:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:19:44+00:00</t>
+    <t>2022-09-04T16:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:44:58+00:00</t>
+    <t>2022-09-04T16:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:52:24+00:00</t>
+    <t>2022-09-04T17:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T17:03:18+00:00</t>
+    <t>2022-09-04T18:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1684,6 +1684,13 @@
 </t>
   </si>
   <si>
+    <t>covid19ReasonTestNotPerformed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-reason-test-not-performed)
+</t>
+  </si>
+  <si>
     <t>covid19VaccinationSection</t>
   </si>
   <si>
@@ -1702,6 +1709,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-vaccination)
+</t>
+  </si>
+  <si>
+    <t>covid19VaccinationAppointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-vaccination-appointment)
 </t>
   </si>
 </sst>
@@ -2007,7 +2021,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN140"/>
+  <dimension ref="A1:AN142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16172,9 +16186,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B124" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="C124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16195,20 +16211,18 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>177</v>
+        <v>531</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16232,13 +16246,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16256,13 +16270,13 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>464</v>
@@ -16274,10 +16288,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16288,7 +16302,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16299,7 +16313,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16311,18 +16325,20 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16346,13 +16362,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16370,16 +16386,16 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16388,10 +16404,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16402,11 +16418,9 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16415,7 +16429,7 @@
         <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16427,15 +16441,17 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16484,7 +16500,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16493,10 +16509,10 @@
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>411</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
@@ -16505,7 +16521,7 @@
         <v>412</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16516,9 +16532,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
@@ -16539,13 +16557,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16596,28 +16614,28 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16628,18 +16646,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>76</v>
@@ -16651,17 +16669,15 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16710,19 +16726,19 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
@@ -16742,11 +16758,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16759,26 +16775,24 @@
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N129" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16826,7 +16840,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16844,7 +16858,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -16858,42 +16872,42 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16903,7 +16917,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16942,28 +16956,28 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16974,11 +16988,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16997,19 +17011,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17019,7 +17033,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17034,13 +17048,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17058,7 +17072,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17076,10 +17090,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17090,7 +17104,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17101,7 +17115,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17113,17 +17127,19 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M132" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N132" t="s" s="2">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17133,7 +17149,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>76</v>
+        <v>534</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17148,13 +17164,13 @@
         <v>76</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>76</v>
@@ -17172,13 +17188,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17190,21 +17206,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17215,7 +17231,7 @@
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17227,18 +17243,18 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17286,13 +17302,13 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -17304,21 +17320,21 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17341,16 +17357,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17400,7 +17416,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17409,7 +17425,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17418,10 +17434,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17432,7 +17448,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17455,20 +17471,18 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17492,13 +17506,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17516,7 +17530,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17525,7 +17539,7 @@
         <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>100</v>
@@ -17534,21 +17548,21 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17571,19 +17585,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17608,13 +17622,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17632,7 +17646,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17650,7 +17664,7 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>159</v>
@@ -17659,12 +17673,12 @@
         <v>76</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17672,10 +17686,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17687,18 +17701,20 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N137" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17722,38 +17738,40 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB137" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>100</v>
@@ -17762,10 +17780,10 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17778,9 +17796,7 @@
       <c r="A138" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B138" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17789,7 +17805,7 @@
         <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17801,7 +17817,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>534</v>
+        <v>252</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>
@@ -17848,16 +17864,14 @@
         <v>76</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB138" s="2"/>
       <c r="AC138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>460</v>
@@ -17892,15 +17906,17 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B139" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="C139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>88</v>
@@ -17915,20 +17931,18 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>177</v>
+        <v>536</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17952,13 +17966,13 @@
         <v>76</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17976,13 +17990,13 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>464</v>
@@ -17994,10 +18008,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18008,9 +18022,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B140" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="C140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18019,7 +18035,7 @@
         <v>77</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>76</v>
@@ -18031,16 +18047,16 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -18090,7 +18106,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -18099,7 +18115,7 @@
         <v>78</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18108,15 +18124,245 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK142" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AL140" t="s" s="2">
+      <c r="AL142" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AM140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN140" t="s" s="2">
+      <c r="AM142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN142" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T18:26:39+00:00</t>
+    <t>2022-09-05T12:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1660,13 +1660,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-specimen)
-</t>
-  </si>
-  <si>
-    <t>covid19SpecimenCollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-specimen-collection)
 </t>
   </si>
   <si>
@@ -2021,7 +2014,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN142"/>
+  <dimension ref="A1:AN141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16186,11 +16179,9 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16211,18 +16202,20 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>531</v>
+        <v>177</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16246,13 +16239,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16270,13 +16263,13 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>464</v>
@@ -16288,10 +16281,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16302,7 +16295,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16313,7 +16306,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16325,20 +16318,18 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16362,13 +16353,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16386,16 +16377,16 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16404,10 +16395,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16418,9 +16409,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B126" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16429,7 +16422,7 @@
         <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16441,17 +16434,15 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16500,7 +16491,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16509,10 +16500,10 @@
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
@@ -16521,7 +16512,7 @@
         <v>412</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16532,11 +16523,9 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
@@ -16557,13 +16546,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16614,28 +16603,28 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16646,18 +16635,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>76</v>
@@ -16669,15 +16658,17 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16726,19 +16717,19 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
@@ -16758,11 +16749,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16775,24 +16766,26 @@
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16840,7 +16833,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16858,7 +16851,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -16872,42 +16865,42 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16917,7 +16910,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>76</v>
+        <v>531</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16956,28 +16949,28 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16988,11 +16981,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17011,19 +17004,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17033,7 +17026,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17048,13 +17041,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17072,7 +17065,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17090,10 +17083,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17104,7 +17097,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17115,7 +17108,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17127,19 +17120,17 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17149,7 +17140,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>534</v>
+        <v>76</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17164,13 +17155,13 @@
         <v>76</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>76</v>
@@ -17188,13 +17179,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17206,21 +17197,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17231,7 +17222,7 @@
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17243,18 +17234,18 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17302,13 +17293,13 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -17320,21 +17311,21 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17357,16 +17348,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17416,7 +17407,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17425,7 +17416,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17434,10 +17425,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17448,7 +17439,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17471,18 +17462,20 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17506,13 +17499,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17530,7 +17523,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17539,7 +17532,7 @@
         <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>100</v>
@@ -17548,21 +17541,21 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17585,19 +17578,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17622,13 +17615,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17646,7 +17639,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17664,7 +17657,7 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>159</v>
@@ -17673,12 +17666,12 @@
         <v>76</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17686,10 +17679,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17701,20 +17694,18 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17738,40 +17729,38 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB137" s="2"/>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>100</v>
@@ -17780,10 +17769,10 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17796,7 +17785,9 @@
       <c r="A138" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B138" s="2"/>
+      <c r="B138" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17805,7 +17796,7 @@
         <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17817,7 +17808,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>252</v>
+        <v>534</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>
@@ -17864,14 +17855,16 @@
         <v>76</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB138" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>460</v>
@@ -17916,7 +17909,7 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>88</v>
@@ -18022,11 +18015,9 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18047,18 +18038,20 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>538</v>
+        <v>177</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18082,13 +18075,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18106,13 +18099,13 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>464</v>
@@ -18124,10 +18117,10 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
@@ -18138,7 +18131,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18149,7 +18142,7 @@
         <v>77</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>76</v>
@@ -18161,20 +18154,18 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>76</v>
       </c>
@@ -18198,13 +18189,13 @@
         <v>76</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>76</v>
@@ -18222,16 +18213,16 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>100</v>
@@ -18240,129 +18231,15 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN142" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:17:02+00:00</t>
+    <t>2022-09-05T12:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:37:44+00:00</t>
+    <t>2022-09-05T15:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1670,7 +1670,7 @@
 </t>
   </si>
   <si>
-    <t>covid19LabResults</t>
+    <t>covid19LabResultsDiagnosticReport</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-lab-results)

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:36:05+00:00</t>
+    <t>2022-09-05T19:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1632,6 +1632,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-assessment-vaccination)
+</t>
+  </si>
+  <si>
+    <t>covid19MedicationRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-medication-request)
 </t>
   </si>
   <si>
@@ -2014,7 +2021,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN141"/>
+  <dimension ref="A1:AN142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13995,9 +14002,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B105" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="C105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14018,20 +14027,18 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14055,13 +14062,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14079,13 +14086,13 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>464</v>
@@ -14097,10 +14104,10 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14111,7 +14118,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14122,7 +14129,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14134,18 +14141,20 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14169,13 +14178,13 @@
         <v>76</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>76</v>
@@ -14193,16 +14202,16 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>100</v>
@@ -14211,10 +14220,10 @@
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14225,11 +14234,9 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14238,7 +14245,7 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
@@ -14250,15 +14257,17 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14307,7 +14316,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14316,10 +14325,10 @@
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>411</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
@@ -14328,7 +14337,7 @@
         <v>412</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14339,9 +14348,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="C108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14362,13 +14373,13 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14419,28 +14430,28 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14451,18 +14462,18 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14474,17 +14485,15 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14533,19 +14542,19 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>76</v>
@@ -14565,11 +14574,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14582,26 +14591,24 @@
         <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N110" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14649,7 +14656,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14667,7 +14674,7 @@
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>76</v>
@@ -14681,42 +14688,42 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14726,7 +14733,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14765,28 +14772,28 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14797,11 +14804,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14820,19 +14827,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14842,7 +14849,7 @@
         <v>76</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>76</v>
@@ -14857,13 +14864,13 @@
         <v>76</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14881,7 +14888,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -14899,10 +14906,10 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
@@ -14913,7 +14920,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14924,7 +14931,7 @@
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>76</v>
@@ -14936,17 +14943,19 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M113" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N113" t="s" s="2">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -14956,7 +14965,7 @@
         <v>76</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>76</v>
+        <v>521</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>76</v>
@@ -14971,13 +14980,13 @@
         <v>76</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>76</v>
@@ -14995,13 +15004,13 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -15013,21 +15022,21 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15038,7 +15047,7 @@
         <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>76</v>
@@ -15050,18 +15059,18 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15109,13 +15118,13 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>76</v>
@@ -15127,21 +15136,21 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15164,16 +15173,16 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15223,7 +15232,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15232,7 +15241,7 @@
         <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>100</v>
@@ -15241,10 +15250,10 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15255,7 +15264,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15278,20 +15287,18 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15315,13 +15322,13 @@
         <v>76</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15339,7 +15346,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15348,7 +15355,7 @@
         <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>100</v>
@@ -15357,21 +15364,21 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15394,19 +15401,19 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15431,13 +15438,13 @@
         <v>76</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>76</v>
@@ -15455,7 +15462,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15473,7 +15480,7 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>159</v>
@@ -15482,12 +15489,12 @@
         <v>76</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15498,7 +15505,7 @@
         <v>77</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>76</v>
@@ -15510,18 +15517,20 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15545,38 +15554,40 @@
         <v>76</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB118" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>100</v>
@@ -15585,10 +15596,10 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
@@ -15601,9 +15612,7 @@
       <c r="A119" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B119" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
         <v>76</v>
       </c>
@@ -15612,7 +15621,7 @@
         <v>77</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>76</v>
@@ -15624,7 +15633,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>521</v>
+        <v>252</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>461</v>
@@ -15671,16 +15680,14 @@
         <v>76</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB119" s="2"/>
       <c r="AC119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE119" t="s" s="2">
         <v>460</v>
@@ -16179,9 +16186,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B124" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="C124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16202,20 +16211,18 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>177</v>
+        <v>531</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16239,13 +16246,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16263,13 +16270,13 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>464</v>
@@ -16281,10 +16288,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16295,7 +16302,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16306,7 +16313,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16318,18 +16325,20 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16353,13 +16362,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16377,16 +16386,16 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16395,10 +16404,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16409,11 +16418,9 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16422,7 +16429,7 @@
         <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16434,15 +16441,17 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16491,7 +16500,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16500,10 +16509,10 @@
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>411</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
@@ -16512,7 +16521,7 @@
         <v>412</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16523,9 +16532,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
@@ -16546,13 +16557,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16603,28 +16614,28 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16635,18 +16646,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>76</v>
@@ -16658,17 +16669,15 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16717,19 +16726,19 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
@@ -16749,11 +16758,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16766,26 +16775,24 @@
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N129" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16833,7 +16840,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16851,7 +16858,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -16865,42 +16872,42 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16910,7 +16917,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>531</v>
+        <v>76</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16949,28 +16956,28 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16981,11 +16988,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17004,19 +17011,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17026,7 +17033,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17041,13 +17048,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17065,7 +17072,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17083,10 +17090,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17097,7 +17104,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17108,7 +17115,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17120,17 +17127,19 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M132" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N132" t="s" s="2">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17140,7 +17149,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>76</v>
+        <v>534</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17155,13 +17164,13 @@
         <v>76</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>76</v>
@@ -17179,13 +17188,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17197,21 +17206,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17222,7 +17231,7 @@
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17234,18 +17243,18 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17293,13 +17302,13 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -17311,21 +17320,21 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17348,16 +17357,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17407,7 +17416,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17416,7 +17425,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17425,10 +17434,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17439,7 +17448,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17462,20 +17471,18 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17499,13 +17506,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17523,7 +17530,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17532,7 +17539,7 @@
         <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>100</v>
@@ -17541,21 +17548,21 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17578,19 +17585,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17615,13 +17622,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17639,7 +17646,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17657,7 +17664,7 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>159</v>
@@ -17666,12 +17673,12 @@
         <v>76</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17679,10 +17686,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17694,18 +17701,20 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N137" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17729,38 +17738,40 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB137" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>464</v>
+        <v>76</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>100</v>
@@ -17769,10 +17780,10 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17785,9 +17796,7 @@
       <c r="A138" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B138" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17796,7 +17805,7 @@
         <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17808,7 +17817,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>534</v>
+        <v>252</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>
@@ -17855,16 +17864,14 @@
         <v>76</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB138" s="2"/>
       <c r="AC138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>460</v>
@@ -17909,7 +17916,7 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>88</v>
@@ -18015,9 +18022,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B140" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="C140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18038,20 +18047,18 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>177</v>
+        <v>538</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18075,13 +18082,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18099,13 +18106,13 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>464</v>
@@ -18117,10 +18124,10 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
@@ -18131,7 +18138,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18142,7 +18149,7 @@
         <v>77</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>76</v>
@@ -18154,18 +18161,20 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N141" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
       </c>
@@ -18189,13 +18198,13 @@
         <v>76</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>76</v>
@@ -18213,16 +18222,16 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>100</v>
@@ -18231,15 +18240,129 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK142" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AL141" t="s" s="2">
+      <c r="AL142" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AM141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN141" t="s" s="2">
+      <c r="AM142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN142" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T19:43:49+00:00</t>
+    <t>2022-09-05T20:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1580,10 +1580,6 @@
   </si>
   <si>
     <t>covid19Admission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-admission)
-</t>
   </si>
   <si>
     <t>covid19Symptom</t>
@@ -13099,7 +13095,7 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>502</v>
+        <v>252</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>461</v>
@@ -13193,7 +13189,7 @@
         <v>460</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>76</v>
@@ -13215,7 +13211,7 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>461</v>
@@ -13309,7 +13305,7 @@
         <v>460</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>76</v>
@@ -13331,7 +13327,7 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>461</v>
@@ -13425,7 +13421,7 @@
         <v>460</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>76</v>
@@ -13447,7 +13443,7 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>461</v>
@@ -13541,7 +13537,7 @@
         <v>460</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>76</v>
@@ -13563,7 +13559,7 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>461</v>
@@ -13657,7 +13653,7 @@
         <v>460</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>76</v>
@@ -13679,7 +13675,7 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>461</v>
@@ -13773,7 +13769,7 @@
         <v>460</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>76</v>
@@ -13795,7 +13791,7 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>461</v>
@@ -13889,7 +13885,7 @@
         <v>460</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>76</v>
@@ -13911,7 +13907,7 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>461</v>
@@ -14005,7 +14001,7 @@
         <v>460</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>76</v>
@@ -14027,7 +14023,7 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>461</v>
@@ -14351,7 +14347,7 @@
         <v>405</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>76</v>
@@ -14849,7 +14845,7 @@
         <v>76</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>76</v>
@@ -14965,7 +14961,7 @@
         <v>76</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>76</v>
@@ -15725,7 +15721,7 @@
         <v>460</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>76</v>
@@ -15747,7 +15743,7 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>461</v>
@@ -15841,7 +15837,7 @@
         <v>460</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>76</v>
@@ -15863,7 +15859,7 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>461</v>
@@ -15957,7 +15953,7 @@
         <v>460</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>76</v>
@@ -15979,7 +15975,7 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>461</v>
@@ -16073,7 +16069,7 @@
         <v>460</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>76</v>
@@ -16095,7 +16091,7 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>461</v>
@@ -16189,7 +16185,7 @@
         <v>460</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>76</v>
@@ -16211,7 +16207,7 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>461</v>
@@ -16535,7 +16531,7 @@
         <v>405</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>76</v>
@@ -17033,7 +17029,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17149,7 +17145,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17909,7 +17905,7 @@
         <v>460</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>76</v>
@@ -17931,7 +17927,7 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>461</v>
@@ -18025,7 +18021,7 @@
         <v>460</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>76</v>
@@ -18047,7 +18043,7 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>461</v>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:02:35+00:00</t>
+    <t>2022-09-05T20:52:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="536">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:52:48+00:00</t>
+    <t>2022-09-06T09:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1542,7 +1542,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>7</t>
+    <t>6</t>
   </si>
   <si>
     <t>covid19AssessmentEncounter</t>
@@ -1586,13 +1586,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-symptom)
-</t>
-  </si>
-  <si>
-    <t>covid19ComorbidityPresent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-comorbidity-present)
 </t>
   </si>
   <si>
@@ -2017,7 +2010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN142"/>
+  <dimension ref="A1:AN141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13312,10 +13305,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>76</v>
@@ -13431,7 +13424,7 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>76</v>
@@ -13660,7 +13653,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>88</v>
@@ -13892,7 +13885,7 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>88</v>
@@ -13998,11 +13991,9 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14023,18 +14014,20 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>517</v>
+        <v>177</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14058,13 +14051,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14082,13 +14075,13 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>464</v>
@@ -14100,10 +14093,10 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14114,7 +14107,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14125,7 +14118,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14137,20 +14130,18 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14174,13 +14165,13 @@
         <v>76</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>76</v>
@@ -14198,16 +14189,16 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>100</v>
@@ -14216,10 +14207,10 @@
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14230,9 +14221,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="C107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14241,7 +14234,7 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
@@ -14253,17 +14246,15 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14312,7 +14303,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14321,10 +14312,10 @@
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
@@ -14333,7 +14324,7 @@
         <v>412</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14344,11 +14335,9 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14369,13 +14358,13 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14426,28 +14415,28 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14458,18 +14447,18 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14481,15 +14470,17 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14538,19 +14529,19 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>76</v>
@@ -14570,11 +14561,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14587,24 +14578,26 @@
         <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14652,7 +14645,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14670,7 +14663,7 @@
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>76</v>
@@ -14684,42 +14677,42 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14729,7 +14722,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>76</v>
+        <v>517</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14768,28 +14761,28 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14800,11 +14793,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14823,19 +14816,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14845,7 +14838,7 @@
         <v>76</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>76</v>
@@ -14860,13 +14853,13 @@
         <v>76</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14884,7 +14877,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -14902,10 +14895,10 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
@@ -14916,7 +14909,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14927,7 +14920,7 @@
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>76</v>
@@ -14939,19 +14932,17 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -14961,7 +14952,7 @@
         <v>76</v>
       </c>
       <c r="R113" t="s" s="2">
-        <v>520</v>
+        <v>76</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>76</v>
@@ -14976,13 +14967,13 @@
         <v>76</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>76</v>
@@ -15000,13 +14991,13 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -15018,21 +15009,21 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15043,7 +15034,7 @@
         <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>76</v>
@@ -15055,18 +15046,18 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15114,13 +15105,13 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>76</v>
@@ -15132,21 +15123,21 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15169,16 +15160,16 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15228,7 +15219,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15237,7 +15228,7 @@
         <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>100</v>
@@ -15246,10 +15237,10 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15260,7 +15251,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15283,18 +15274,20 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15318,13 +15311,13 @@
         <v>76</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15342,7 +15335,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15351,7 +15344,7 @@
         <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>100</v>
@@ -15360,21 +15353,21 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15397,19 +15390,19 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15434,13 +15427,13 @@
         <v>76</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>76</v>
@@ -15458,7 +15451,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15476,7 +15469,7 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>159</v>
@@ -15485,12 +15478,12 @@
         <v>76</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15501,7 +15494,7 @@
         <v>77</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>76</v>
@@ -15513,20 +15506,18 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15550,40 +15541,38 @@
         <v>76</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB118" s="2"/>
       <c r="AC118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>100</v>
@@ -15592,10 +15581,10 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
@@ -15608,7 +15597,9 @@
       <c r="A119" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
       </c>
@@ -15617,7 +15608,7 @@
         <v>77</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>76</v>
@@ -15629,7 +15620,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>461</v>
@@ -15676,14 +15667,16 @@
         <v>76</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB119" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
         <v>460</v>
@@ -16182,11 +16175,9 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16207,18 +16198,20 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>530</v>
+        <v>177</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16242,13 +16235,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16266,13 +16259,13 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>464</v>
@@ -16284,10 +16277,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16298,7 +16291,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16309,7 +16302,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16321,20 +16314,18 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16358,13 +16349,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16382,16 +16373,16 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16400,10 +16391,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16414,9 +16405,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B126" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16425,7 +16418,7 @@
         <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16437,17 +16430,15 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16496,7 +16487,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16505,10 +16496,10 @@
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
@@ -16517,7 +16508,7 @@
         <v>412</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16528,11 +16519,9 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
@@ -16553,13 +16542,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16610,28 +16599,28 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16642,18 +16631,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>76</v>
@@ -16665,15 +16654,17 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16722,19 +16713,19 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
@@ -16754,11 +16745,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16771,24 +16762,26 @@
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16836,7 +16829,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16854,7 +16847,7 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>76</v>
@@ -16868,42 +16861,42 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16913,7 +16906,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16952,28 +16945,28 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16984,11 +16977,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17007,19 +17000,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17029,7 +17022,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17044,13 +17037,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17068,7 +17061,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17086,10 +17079,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17100,7 +17093,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17111,7 +17104,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17123,19 +17116,17 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17145,7 +17136,7 @@
         <v>76</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>533</v>
+        <v>76</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>76</v>
@@ -17160,13 +17151,13 @@
         <v>76</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>76</v>
@@ -17184,13 +17175,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17202,21 +17193,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17227,7 +17218,7 @@
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17239,18 +17230,18 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17298,13 +17289,13 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -17316,21 +17307,21 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17353,16 +17344,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17412,7 +17403,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17421,7 +17412,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17430,10 +17421,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17444,7 +17435,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17467,18 +17458,20 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17502,13 +17495,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17526,7 +17519,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17535,7 +17528,7 @@
         <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>100</v>
@@ -17544,21 +17537,21 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17581,19 +17574,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17618,13 +17611,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17642,7 +17635,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17660,7 +17653,7 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>159</v>
@@ -17669,12 +17662,12 @@
         <v>76</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17682,10 +17675,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17697,20 +17690,18 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17734,40 +17725,38 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB137" s="2"/>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>100</v>
@@ -17776,10 +17765,10 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17792,7 +17781,9 @@
       <c r="A138" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B138" s="2"/>
+      <c r="B138" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17801,7 +17792,7 @@
         <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17813,7 +17804,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>252</v>
+        <v>533</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>
@@ -17860,14 +17851,16 @@
         <v>76</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB138" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>460</v>
@@ -17912,7 +17905,7 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>88</v>
@@ -18018,11 +18011,9 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18043,18 +18034,20 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>537</v>
+        <v>177</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18078,13 +18071,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18102,13 +18095,13 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>464</v>
@@ -18120,10 +18113,10 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
@@ -18134,7 +18127,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18145,7 +18138,7 @@
         <v>77</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>76</v>
@@ -18157,20 +18150,18 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>76</v>
       </c>
@@ -18194,13 +18185,13 @@
         <v>76</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>76</v>
@@ -18218,16 +18209,16 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>100</v>
@@ -18236,129 +18227,15 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN142" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:51:55+00:00</t>
+    <t>2022-09-06T10:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1542,7 +1542,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>6</t>
+    <t>5</t>
   </si>
   <si>
     <t>covid19AssessmentEncounter</t>
@@ -1566,17 +1566,6 @@
   </si>
   <si>
     <t>covid19DateLastHospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-date-last-hospitalized)
-</t>
-  </si>
-  <si>
-    <t>covid19EverHospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-everhospitalized)
-</t>
   </si>
   <si>
     <t>covid19Admission</t>
@@ -1670,6 +1659,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-lab-results)
+</t>
+  </si>
+  <si>
+    <t>covid19TestResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-test-results)
 </t>
   </si>
   <si>
@@ -12856,7 +12852,7 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>498</v>
+        <v>252</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>461</v>
@@ -12950,14 +12946,14 @@
         <v>460</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>88</v>
@@ -12972,7 +12968,7 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>500</v>
+        <v>252</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>461</v>
@@ -13066,7 +13062,7 @@
         <v>460</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>76</v>
@@ -13076,7 +13072,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>76</v>
@@ -13088,7 +13084,7 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>252</v>
+        <v>500</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>461</v>
@@ -13182,7 +13178,7 @@
         <v>460</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>76</v>
@@ -13204,7 +13200,7 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>461</v>
@@ -13298,7 +13294,7 @@
         <v>460</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>76</v>
@@ -13308,7 +13304,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>76</v>
@@ -13320,7 +13316,7 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>461</v>
@@ -13414,7 +13410,7 @@
         <v>460</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>76</v>
@@ -13436,7 +13432,7 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>461</v>
@@ -13530,14 +13526,14 @@
         <v>460</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>88</v>
@@ -13552,7 +13548,7 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>461</v>
@@ -13646,7 +13642,7 @@
         <v>460</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>76</v>
@@ -13668,7 +13664,7 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>461</v>
@@ -13762,14 +13758,14 @@
         <v>460</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>88</v>
@@ -13784,7 +13780,7 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>461</v>
@@ -13875,11 +13871,9 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
         <v>76</v>
       </c>
@@ -13900,18 +13894,20 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
       </c>
@@ -13935,13 +13931,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -13959,13 +13955,13 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>464</v>
@@ -13977,10 +13973,10 @@
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
@@ -13991,7 +13987,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14002,7 +13998,7 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>76</v>
@@ -14014,20 +14010,18 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14051,13 +14045,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14075,16 +14069,16 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>100</v>
@@ -14093,10 +14087,10 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14107,9 +14101,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B106" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="C106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14118,7 +14114,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14130,17 +14126,15 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>76</v>
@@ -14189,7 +14183,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14198,10 +14192,10 @@
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>76</v>
@@ -14210,7 +14204,7 @@
         <v>412</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14221,11 +14215,9 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14246,13 +14238,13 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14303,28 +14295,28 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14335,18 +14327,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>76</v>
@@ -14358,15 +14350,17 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14415,19 +14409,19 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
@@ -14447,11 +14441,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14464,24 +14458,26 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N109" s="2"/>
+      <c r="N109" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
       </c>
@@ -14529,7 +14525,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14547,7 +14543,7 @@
         <v>76</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>76</v>
@@ -14561,42 +14557,42 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
@@ -14606,7 +14602,7 @@
         <v>76</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>76</v>
+        <v>514</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>76</v>
@@ -14645,28 +14641,28 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
@@ -14677,11 +14673,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14700,19 +14696,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14722,7 +14718,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14737,13 +14733,13 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>76</v>
@@ -14761,7 +14757,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -14779,10 +14775,10 @@
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14793,7 +14789,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14804,7 +14800,7 @@
         <v>77</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>76</v>
@@ -14816,19 +14812,17 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14838,7 +14832,7 @@
         <v>76</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>76</v>
@@ -14853,13 +14847,13 @@
         <v>76</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14877,13 +14871,13 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14895,21 +14889,21 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14920,7 +14914,7 @@
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>76</v>
@@ -14932,18 +14926,18 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14991,13 +14985,13 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -15009,21 +15003,21 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15046,16 +15040,16 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15105,7 +15099,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15114,7 +15108,7 @@
         <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>100</v>
@@ -15123,10 +15117,10 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15137,7 +15131,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15160,18 +15154,20 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15195,13 +15191,13 @@
         <v>76</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>76</v>
@@ -15219,7 +15215,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15228,7 +15224,7 @@
         <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>100</v>
@@ -15237,21 +15233,21 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15274,19 +15270,19 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15311,13 +15307,13 @@
         <v>76</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15335,7 +15331,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15353,7 +15349,7 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>159</v>
@@ -15362,12 +15358,12 @@
         <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15378,7 +15374,7 @@
         <v>77</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>76</v>
@@ -15390,20 +15386,18 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>76</v>
       </c>
@@ -15427,40 +15421,38 @@
         <v>76</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB117" s="2"/>
       <c r="AC117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>100</v>
@@ -15469,10 +15461,10 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>76</v>
@@ -15485,7 +15477,9 @@
       <c r="A118" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="C118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15494,7 +15488,7 @@
         <v>77</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>76</v>
@@ -15506,7 +15500,7 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>252</v>
+        <v>517</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>461</v>
@@ -15553,14 +15547,16 @@
         <v>76</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB118" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
         <v>460</v>
@@ -15598,7 +15594,7 @@
         <v>460</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
@@ -15620,7 +15616,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>461</v>
@@ -15714,7 +15710,7 @@
         <v>460</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>76</v>
@@ -15736,7 +15732,7 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>461</v>
@@ -15830,7 +15826,7 @@
         <v>460</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>76</v>
@@ -15852,7 +15848,7 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>461</v>
@@ -15946,7 +15942,7 @@
         <v>460</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>76</v>
@@ -15968,7 +15964,7 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>461</v>
@@ -16062,7 +16058,7 @@
         <v>460</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>76</v>
@@ -16084,7 +16080,7 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>461</v>
@@ -16408,7 +16404,7 @@
         <v>405</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
@@ -16906,7 +16902,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -17022,7 +17018,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17782,7 +17778,7 @@
         <v>460</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
@@ -17804,7 +17800,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>
@@ -17898,7 +17894,7 @@
         <v>460</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>76</v>
@@ -17920,7 +17916,7 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>461</v>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:23:58+00:00</t>
+    <t>2022-09-06T10:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:35:52+00:00</t>
+    <t>2022-09-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:50:16+00:00</t>
+    <t>2022-09-06T13:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:52:47+00:00</t>
+    <t>2022-09-06T13:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:57:27+00:00</t>
+    <t>2022-09-06T15:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:51:32+00:00</t>
+    <t>2022-09-06T16:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T16:22:29+00:00</t>
+    <t>2022-09-07T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:47:40+00:00</t>
+    <t>2022-09-07T08:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:51:15+00:00</t>
+    <t>2022-09-07T09:51:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1593,10 +1593,6 @@
   </si>
   <si>
     <t>hivDiagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/hiv-diagnosis)
-</t>
   </si>
   <si>
     <t>covid19VaccineDoseReceived</t>
@@ -13432,7 +13428,7 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>506</v>
+        <v>252</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>461</v>
@@ -13526,7 +13522,7 @@
         <v>460</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>76</v>
@@ -13548,7 +13544,7 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>461</v>
@@ -13642,7 +13638,7 @@
         <v>460</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>76</v>
@@ -13664,7 +13660,7 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>461</v>
@@ -13758,7 +13754,7 @@
         <v>460</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>76</v>
@@ -13780,7 +13776,7 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>461</v>
@@ -14104,7 +14100,7 @@
         <v>405</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>76</v>
@@ -14602,7 +14598,7 @@
         <v>76</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>76</v>
@@ -14718,7 +14714,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -15478,7 +15474,7 @@
         <v>460</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>76</v>
@@ -15500,7 +15496,7 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>461</v>
@@ -15594,7 +15590,7 @@
         <v>460</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
@@ -15616,7 +15612,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>461</v>
@@ -15710,7 +15706,7 @@
         <v>460</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>76</v>
@@ -15732,7 +15728,7 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>461</v>
@@ -15826,7 +15822,7 @@
         <v>460</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>76</v>
@@ -15848,7 +15844,7 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>461</v>
@@ -15942,7 +15938,7 @@
         <v>460</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>76</v>
@@ -15964,7 +15960,7 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>461</v>
@@ -16058,7 +16054,7 @@
         <v>460</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>76</v>
@@ -16080,7 +16076,7 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>461</v>
@@ -16404,7 +16400,7 @@
         <v>405</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
@@ -16902,7 +16898,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -17018,7 +17014,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17778,7 +17774,7 @@
         <v>460</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
@@ -17800,7 +17796,7 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>461</v>
@@ -17894,7 +17890,7 @@
         <v>460</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>76</v>
@@ -17916,7 +17912,7 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>461</v>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:51:43+00:00</t>
+    <t>2022-09-07T09:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:57:24+00:00</t>
+    <t>2022-09-07T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1278,7 +1278,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code.coding.code}
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
@@ -2037,7 +2037,7 @@
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>88</v>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>88</v>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>88</v>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>88</v>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:41:33+00:00</t>
+    <t>2022-09-09T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,216 +286,220 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Composition.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Composition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Composition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Composition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Composition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Composition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Version-independent identifier for the Composition</t>
+  </si>
+  <si>
+    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
+  </si>
+  <si>
+    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Document.id / Document.setId</t>
+  </si>
+  <si>
+    <t>.setId</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Composition.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Composition.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Composition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Composition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Composition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Composition.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Version-independent identifier for the Composition</t>
-  </si>
-  <si>
-    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
-  </si>
-  <si>
-    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Document.id / Document.setId</t>
-  </si>
-  <si>
-    <t>.setId</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1514,7 +1518,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:item.resolve()}
+    <t xml:space="preserve">profile:reference.resolve()}
 </t>
   </si>
   <si>
@@ -2037,7 +2041,7 @@
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="26.1875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -3340,13 +3344,13 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3397,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3415,7 +3419,7 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -3429,7 +3433,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3458,7 +3462,7 @@
         <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>137</v>
@@ -3499,19 +3503,19 @@
         <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3529,7 +3533,7 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -3543,7 +3547,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3569,16 +3573,16 @@
         <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3603,13 +3607,13 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -3627,7 +3631,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3645,7 +3649,7 @@
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3659,7 +3663,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3682,19 +3686,19 @@
         <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -3719,13 +3723,13 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>76</v>
@@ -3743,7 +3747,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3761,7 +3765,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3775,7 +3779,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3801,16 +3805,16 @@
         <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3820,10 +3824,10 @@
         <v>76</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>76</v>
@@ -3859,7 +3863,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3877,7 +3881,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3891,7 +3895,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3914,16 +3918,16 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3937,7 +3941,7 @@
         <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>76</v>
@@ -3973,7 +3977,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3991,7 +3995,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -4005,7 +4009,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4028,13 +4032,13 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4085,7 +4089,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4103,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -4117,7 +4121,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4140,16 +4144,16 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4199,7 +4203,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4217,7 +4221,7 @@
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -4231,7 +4235,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4257,16 +4261,16 @@
         <v>108</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -4291,13 +4295,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -4315,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>88</v>
@@ -4330,24 +4334,24 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4370,19 +4374,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -4392,7 +4396,7 @@
         <v>76</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>76</v>
@@ -4410,10 +4414,10 @@
         <v>112</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -4431,7 +4435,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>88</v>
@@ -4446,24 +4450,24 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4486,19 +4490,19 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4508,7 +4512,7 @@
         <v>76</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>76</v>
@@ -4523,13 +4527,13 @@
         <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>76</v>
@@ -4547,7 +4551,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4562,24 +4566,24 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4602,19 +4606,19 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4663,7 +4667,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4681,21 +4685,21 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4718,17 +4722,17 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4777,7 +4781,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4792,24 +4796,24 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4832,19 +4836,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4893,7 +4897,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>88</v>
@@ -4908,24 +4912,24 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4948,17 +4952,17 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -5007,7 +5011,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>88</v>
@@ -5022,24 +5026,24 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5062,16 +5066,16 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5121,7 +5125,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>88</v>
@@ -5139,13 +5143,13 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -5153,7 +5157,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5179,13 +5183,13 @@
         <v>108</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5211,13 +5215,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -5235,7 +5239,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5253,13 +5257,13 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5267,7 +5271,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5290,19 +5294,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5351,7 +5355,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5369,13 +5373,13 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5383,7 +5387,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5406,13 +5410,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5463,7 +5467,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5481,7 +5485,7 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5495,7 +5499,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5524,7 +5528,7 @@
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>137</v>
@@ -5577,7 +5581,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5595,7 +5599,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5609,11 +5613,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5635,10 +5639,10 @@
         <v>134</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>137</v>
@@ -5693,7 +5697,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5725,7 +5729,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5751,14 +5755,14 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5783,13 +5787,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5807,7 +5811,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -5825,10 +5829,10 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5839,7 +5843,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5862,17 +5866,17 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5921,7 +5925,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5939,10 +5943,10 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5953,7 +5957,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5976,17 +5980,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -6035,7 +6039,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6053,21 +6057,21 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6090,19 +6094,19 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6151,7 +6155,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6169,13 +6173,13 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6183,7 +6187,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6206,16 +6210,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6265,7 +6269,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6283,13 +6287,13 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6297,7 +6301,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6320,13 +6324,13 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6377,7 +6381,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6395,7 +6399,7 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6409,7 +6413,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6438,7 +6442,7 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>137</v>
@@ -6491,7 +6495,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6509,7 +6513,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6523,11 +6527,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6549,10 +6553,10 @@
         <v>134</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>137</v>
@@ -6607,7 +6611,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6639,7 +6643,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6665,13 +6669,13 @@
         <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6697,13 +6701,13 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
@@ -6721,7 +6725,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>88</v>
@@ -6739,13 +6743,13 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6753,7 +6757,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6776,13 +6780,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6833,7 +6837,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -6851,13 +6855,13 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6865,7 +6869,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6888,19 +6892,19 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6949,7 +6953,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6967,13 +6971,13 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6981,7 +6985,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7004,13 +7008,13 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7061,7 +7065,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7079,7 +7083,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -7093,7 +7097,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7122,7 +7126,7 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>137</v>
@@ -7175,7 +7179,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7193,7 +7197,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7207,11 +7211,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7233,10 +7237,10 @@
         <v>134</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>137</v>
@@ -7291,7 +7295,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7323,7 +7327,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7346,16 +7350,16 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7381,13 +7385,13 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7405,7 +7409,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7423,13 +7427,13 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7437,7 +7441,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7460,13 +7464,13 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7517,7 +7521,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7535,13 +7539,13 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7549,7 +7553,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7572,13 +7576,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7629,7 +7633,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7647,10 +7651,10 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7661,7 +7665,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7684,13 +7688,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7729,19 +7733,19 @@
         <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7753,16 +7757,16 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7773,7 +7777,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7796,13 +7800,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7853,7 +7857,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7871,7 +7875,7 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7885,7 +7889,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7914,7 +7918,7 @@
         <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>137</v>
@@ -7967,7 +7971,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7985,7 +7989,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7999,11 +8003,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8025,10 +8029,10 @@
         <v>134</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>137</v>
@@ -8083,7 +8087,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8115,11 +8119,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8138,19 +8142,19 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -8199,7 +8203,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8217,10 +8221,10 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8231,7 +8235,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8254,19 +8258,19 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8291,13 +8295,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8315,7 +8319,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8333,10 +8337,10 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8347,7 +8351,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8370,17 +8374,17 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8429,7 +8433,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8447,21 +8451,21 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8484,16 +8488,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8543,7 +8547,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8564,7 +8568,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8575,7 +8579,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8601,13 +8605,13 @@
         <v>118</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8657,7 +8661,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8666,7 +8670,7 @@
         <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>100</v>
@@ -8675,10 +8679,10 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8689,7 +8693,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8715,16 +8719,16 @@
         <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8749,13 +8753,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8773,7 +8777,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8791,21 +8795,21 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8828,19 +8832,19 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8868,10 +8872,10 @@
         <v>112</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -8889,7 +8893,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8907,10 +8911,10 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8921,7 +8925,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8944,16 +8948,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9003,7 +9007,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9012,7 +9016,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>100</v>
@@ -9021,10 +9025,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -9035,7 +9039,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9058,19 +9062,19 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -9098,10 +9102,10 @@
         <v>112</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -9119,7 +9123,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9128,7 +9132,7 @@
         <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>100</v>
@@ -9137,10 +9141,10 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9151,7 +9155,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9177,13 +9181,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9233,7 +9237,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9242,7 +9246,7 @@
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>100</v>
@@ -9251,10 +9255,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9265,10 +9269,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>76</v>
@@ -9290,13 +9294,13 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9347,7 +9351,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9359,16 +9363,16 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9379,7 +9383,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9402,13 +9406,13 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9459,7 +9463,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9477,7 +9481,7 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9491,7 +9495,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9520,7 +9524,7 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>137</v>
@@ -9573,7 +9577,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9591,7 +9595,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9605,11 +9609,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9631,10 +9635,10 @@
         <v>134</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>137</v>
@@ -9689,7 +9693,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9721,11 +9725,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9744,19 +9748,19 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -9766,7 +9770,7 @@
         <v>76</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -9805,7 +9809,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9823,10 +9827,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9837,7 +9841,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9860,19 +9864,19 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9882,7 +9886,7 @@
         <v>76</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>76</v>
@@ -9897,13 +9901,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9921,7 +9925,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9939,10 +9943,10 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -9953,7 +9957,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9976,17 +9980,17 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -10035,7 +10039,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10053,21 +10057,21 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10090,16 +10094,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10149,7 +10153,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10170,7 +10174,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10181,7 +10185,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10207,13 +10211,13 @@
         <v>118</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10263,7 +10267,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10272,7 +10276,7 @@
         <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>100</v>
@@ -10281,10 +10285,10 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10295,7 +10299,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10321,16 +10325,16 @@
         <v>108</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10355,13 +10359,13 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10379,7 +10383,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10397,21 +10401,21 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10434,19 +10438,19 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10474,10 +10478,10 @@
         <v>112</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -10495,7 +10499,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10513,10 +10517,10 @@
         <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10527,7 +10531,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10550,16 +10554,16 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10597,17 +10601,17 @@
         <v>76</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10616,7 +10620,7 @@
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>100</v>
@@ -10625,10 +10629,10 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10639,10 +10643,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>76</v>
@@ -10664,16 +10668,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10723,7 +10727,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10732,7 +10736,7 @@
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>100</v>
@@ -10741,10 +10745,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10755,7 +10759,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10778,19 +10782,19 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -10818,10 +10822,10 @@
         <v>112</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10839,7 +10843,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10848,7 +10852,7 @@
         <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>100</v>
@@ -10857,10 +10861,10 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10871,7 +10875,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10897,13 +10901,13 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10953,7 +10957,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10962,7 +10966,7 @@
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>100</v>
@@ -10971,10 +10975,10 @@
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10985,10 +10989,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>76</v>
@@ -11010,13 +11014,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11067,7 +11071,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11079,16 +11083,16 @@
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11099,7 +11103,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11122,13 +11126,13 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11179,7 +11183,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11197,7 +11201,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -11211,7 +11215,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11240,7 +11244,7 @@
         <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>137</v>
@@ -11293,7 +11297,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11311,7 +11315,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -11325,11 +11329,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11351,10 +11355,10 @@
         <v>134</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>137</v>
@@ -11409,7 +11413,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11441,11 +11445,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11464,19 +11468,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11486,7 +11490,7 @@
         <v>76</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>76</v>
@@ -11525,7 +11529,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11543,10 +11547,10 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -11557,7 +11561,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11580,19 +11584,19 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -11602,7 +11606,7 @@
         <v>76</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>76</v>
@@ -11617,13 +11621,13 @@
         <v>76</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11641,7 +11645,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11659,10 +11663,10 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11673,7 +11677,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11696,17 +11700,17 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -11755,7 +11759,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11773,21 +11777,21 @@
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11810,16 +11814,16 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11869,7 +11873,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11890,7 +11894,7 @@
         <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
@@ -11901,7 +11905,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11927,13 +11931,13 @@
         <v>118</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11983,7 +11987,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -11992,7 +11996,7 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -12001,10 +12005,10 @@
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -12015,7 +12019,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12041,16 +12045,16 @@
         <v>108</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12075,13 +12079,13 @@
         <v>76</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -12099,7 +12103,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12117,21 +12121,21 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12154,19 +12158,19 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
@@ -12194,10 +12198,10 @@
         <v>112</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>76</v>
@@ -12215,7 +12219,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12233,10 +12237,10 @@
         <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -12247,7 +12251,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12255,7 +12259,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>78</v>
@@ -12270,16 +12274,16 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12317,17 +12321,17 @@
         <v>76</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB90" s="2"/>
       <c r="AC90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12336,7 +12340,7 @@
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>100</v>
@@ -12345,10 +12349,10 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12359,10 +12363,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>76</v>
@@ -12384,16 +12388,16 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12443,7 +12447,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12452,7 +12456,7 @@
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>100</v>
@@ -12461,10 +12465,10 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -12475,10 +12479,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>76</v>
@@ -12500,16 +12504,16 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12559,7 +12563,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12568,7 +12572,7 @@
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>100</v>
@@ -12577,10 +12581,10 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12591,10 +12595,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>76</v>
@@ -12616,16 +12620,16 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12675,7 +12679,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12684,7 +12688,7 @@
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -12693,10 +12697,10 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -12707,10 +12711,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>76</v>
@@ -12732,16 +12736,16 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12791,7 +12795,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -12800,7 +12804,7 @@
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>100</v>
@@ -12809,10 +12813,10 @@
         <v>76</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -12823,10 +12827,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>76</v>
@@ -12848,16 +12852,16 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12907,7 +12911,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -12916,7 +12920,7 @@
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
@@ -12925,10 +12929,10 @@
         <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12939,10 +12943,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>76</v>
@@ -12964,16 +12968,16 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13023,7 +13027,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13032,7 +13036,7 @@
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13041,10 +13045,10 @@
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13055,10 +13059,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>76</v>
@@ -13080,16 +13084,16 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13139,7 +13143,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13148,7 +13152,7 @@
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>100</v>
@@ -13157,10 +13161,10 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -13171,10 +13175,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>76</v>
@@ -13196,16 +13200,16 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13255,7 +13259,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13264,7 +13268,7 @@
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>100</v>
@@ -13273,10 +13277,10 @@
         <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>76</v>
@@ -13287,10 +13291,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>76</v>
@@ -13312,16 +13316,16 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13371,7 +13375,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13380,7 +13384,7 @@
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>100</v>
@@ -13389,10 +13393,10 @@
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13403,10 +13407,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>76</v>
@@ -13428,16 +13432,16 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13487,7 +13491,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13496,7 +13500,7 @@
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>100</v>
@@ -13505,10 +13509,10 @@
         <v>76</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
@@ -13519,10 +13523,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>76</v>
@@ -13544,16 +13548,16 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13603,7 +13607,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13612,7 +13616,7 @@
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>100</v>
@@ -13621,10 +13625,10 @@
         <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -13635,10 +13639,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>76</v>
@@ -13660,16 +13664,16 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13719,7 +13723,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -13728,7 +13732,7 @@
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>100</v>
@@ -13737,10 +13741,10 @@
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13751,10 +13755,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>76</v>
@@ -13776,16 +13780,16 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13835,7 +13839,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -13844,7 +13848,7 @@
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
@@ -13853,10 +13857,10 @@
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>
@@ -13867,7 +13871,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13890,19 +13894,19 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -13930,10 +13934,10 @@
         <v>112</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -13951,7 +13955,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -13960,7 +13964,7 @@
         <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>100</v>
@@ -13969,10 +13973,10 @@
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
@@ -13983,7 +13987,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14009,13 +14013,13 @@
         <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14065,7 +14069,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14074,7 +14078,7 @@
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>100</v>
@@ -14083,10 +14087,10 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14097,10 +14101,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>76</v>
@@ -14122,13 +14126,13 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14179,7 +14183,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14191,16 +14195,16 @@
         <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14211,7 +14215,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14234,13 +14238,13 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14291,7 +14295,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14309,7 +14313,7 @@
         <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>76</v>
@@ -14323,7 +14327,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14352,7 +14356,7 @@
         <v>135</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>137</v>
@@ -14405,7 +14409,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14423,7 +14427,7 @@
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>76</v>
@@ -14437,11 +14441,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14463,10 +14467,10 @@
         <v>134</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>137</v>
@@ -14521,7 +14525,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14553,11 +14557,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14576,19 +14580,19 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
@@ -14598,7 +14602,7 @@
         <v>76</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>76</v>
@@ -14637,7 +14641,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14655,10 +14659,10 @@
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
@@ -14669,7 +14673,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14692,19 +14696,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14714,7 +14718,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14729,13 +14733,13 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>76</v>
@@ -14753,7 +14757,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -14771,10 +14775,10 @@
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14785,7 +14789,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14808,17 +14812,17 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14867,7 +14871,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -14885,21 +14889,21 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14922,16 +14926,16 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14981,7 +14985,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15002,7 +15006,7 @@
         <v>76</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15013,7 +15017,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15039,13 +15043,13 @@
         <v>118</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15095,7 +15099,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15104,7 +15108,7 @@
         <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>100</v>
@@ -15113,10 +15117,10 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15127,7 +15131,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15153,16 +15157,16 @@
         <v>108</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>76</v>
@@ -15187,13 +15191,13 @@
         <v>76</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>76</v>
@@ -15211,7 +15215,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15229,21 +15233,21 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15266,19 +15270,19 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15306,10 +15310,10 @@
         <v>112</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15327,7 +15331,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -15345,10 +15349,10 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -15359,7 +15363,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15382,16 +15386,16 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15429,17 +15433,17 @@
         <v>76</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB117" s="2"/>
       <c r="AC117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -15448,7 +15452,7 @@
         <v>78</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>100</v>
@@ -15457,10 +15461,10 @@
         <v>76</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>76</v>
@@ -15471,10 +15475,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>76</v>
@@ -15496,16 +15500,16 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -15555,7 +15559,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -15564,7 +15568,7 @@
         <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>100</v>
@@ -15573,10 +15577,10 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
@@ -15587,10 +15591,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
@@ -15612,16 +15616,16 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15671,7 +15675,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -15680,7 +15684,7 @@
         <v>78</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>100</v>
@@ -15689,10 +15693,10 @@
         <v>76</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -15703,10 +15707,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>76</v>
@@ -15728,16 +15732,16 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15787,7 +15791,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -15796,7 +15800,7 @@
         <v>78</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>100</v>
@@ -15805,10 +15809,10 @@
         <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -15819,10 +15823,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>76</v>
@@ -15844,16 +15848,16 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -15903,7 +15907,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -15912,7 +15916,7 @@
         <v>78</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>100</v>
@@ -15921,10 +15925,10 @@
         <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
@@ -15935,10 +15939,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>76</v>
@@ -15960,16 +15964,16 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16019,7 +16023,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16028,7 +16032,7 @@
         <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>100</v>
@@ -16037,10 +16041,10 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16051,10 +16055,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>76</v>
@@ -16076,16 +16080,16 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16135,7 +16139,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16144,7 +16148,7 @@
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>100</v>
@@ -16153,10 +16157,10 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16167,7 +16171,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16190,19 +16194,19 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
@@ -16230,10 +16234,10 @@
         <v>112</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16251,7 +16255,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -16260,7 +16264,7 @@
         <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>100</v>
@@ -16269,10 +16273,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16283,7 +16287,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16309,13 +16313,13 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16365,7 +16369,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16374,7 +16378,7 @@
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
@@ -16383,10 +16387,10 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16397,10 +16401,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
@@ -16422,13 +16426,13 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16479,7 +16483,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16491,16 +16495,16 @@
         <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16511,7 +16515,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16534,13 +16538,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16591,7 +16595,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
@@ -16609,7 +16613,7 @@
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>76</v>
@@ -16623,7 +16627,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16652,7 +16656,7 @@
         <v>135</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>137</v>
@@ -16705,7 +16709,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -16723,7 +16727,7 @@
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>76</v>
@@ -16737,11 +16741,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16763,10 +16767,10 @@
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
@@ -16821,7 +16825,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -16853,11 +16857,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16876,19 +16880,19 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16898,7 +16902,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16937,7 +16941,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -16955,10 +16959,10 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16969,7 +16973,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16992,19 +16996,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17014,7 +17018,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17029,13 +17033,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17053,7 +17057,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17071,10 +17075,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17085,7 +17089,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17108,17 +17112,17 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17167,7 +17171,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -17185,21 +17189,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17222,16 +17226,16 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17281,7 +17285,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -17302,7 +17306,7 @@
         <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
@@ -17313,7 +17317,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17339,13 +17343,13 @@
         <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17395,7 +17399,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17404,7 +17408,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17413,10 +17417,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17427,7 +17431,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17453,16 +17457,16 @@
         <v>108</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -17487,13 +17491,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17511,7 +17515,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17529,21 +17533,21 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17566,19 +17570,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17606,10 +17610,10 @@
         <v>112</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17627,7 +17631,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17645,10 +17649,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17659,7 +17663,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17682,16 +17686,16 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17729,17 +17733,17 @@
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB137" s="2"/>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
@@ -17748,7 +17752,7 @@
         <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>100</v>
@@ -17757,10 +17761,10 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17771,10 +17775,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
@@ -17796,16 +17800,16 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17855,7 +17859,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -17864,7 +17868,7 @@
         <v>78</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>100</v>
@@ -17873,10 +17877,10 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17887,10 +17891,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>76</v>
@@ -17912,16 +17916,16 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -17971,7 +17975,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
@@ -17980,7 +17984,7 @@
         <v>78</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>100</v>
@@ -17989,10 +17993,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18003,7 +18007,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18026,19 +18030,19 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -18066,10 +18070,10 @@
         <v>112</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18087,7 +18091,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -18096,7 +18100,7 @@
         <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18105,10 +18109,10 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
@@ -18119,7 +18123,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18145,13 +18149,13 @@
         <v>76</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -18201,7 +18205,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
@@ -18210,7 +18214,7 @@
         <v>78</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>100</v>
@@ -18219,10 +18223,10 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>76</v>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:12:33+00:00</t>
+    <t>2022-09-09T14:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:31:53+00:00</t>
+    <t>2022-09-12T10:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T10:06:31+00:00</t>
+    <t>2022-09-14T11:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T11:15:14+00:00</t>
+    <t>2022-09-15T17:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/covid19-composition</t>
+    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-composition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T17:44:16+00:00</t>
+    <t>2022-09-15T19:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1512,7 +1512,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="CLIENT-REGISTRATION"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1528,7 +1528,7 @@
     <t>covid19Patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-patient)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-patient)
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="COVID-ASSESSMENT"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1552,7 +1552,7 @@
     <t>covid19AssessmentEncounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-encounter)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-encounter)
 </t>
   </si>
   <si>
@@ -1565,7 +1565,7 @@
     <t>covid19Presentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-presentation)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-presentation)
 </t>
   </si>
   <si>
@@ -1578,21 +1578,21 @@
     <t>covid19Symptom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-symptom)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-symptom)
 </t>
   </si>
   <si>
     <t>covid19ConditionsComorbidity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-conditions-comorbidity)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-conditions-comorbidity)
 </t>
   </si>
   <si>
     <t>covid19Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-diagnosis)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-diagnosis)
 </t>
   </si>
   <si>
@@ -1602,21 +1602,21 @@
     <t>covid19VaccineDoseReceived</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-vaccine-dose-received)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-vaccine-dose-received)
 </t>
   </si>
   <si>
     <t>covid19AssessmentVaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-assessment-vaccination)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-assessment-vaccination)
 </t>
   </si>
   <si>
     <t>covid19MedicationRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-medication-request)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-medication-request)
 </t>
   </si>
   <si>
@@ -1628,7 +1628,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="LABORDER-MANAGEMENT"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1637,42 +1637,42 @@
     <t>covid19LabOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-lab-order)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-lab-order)
 </t>
   </si>
   <si>
     <t>covid19Specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-specimen)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-specimen)
 </t>
   </si>
   <si>
     <t>covid19LabOrderCancellation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-lab-order-cancellation)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-lab-order-cancellation)
 </t>
   </si>
   <si>
     <t>covid19LabResultsDiagnosticReport</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-lab-results)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-lab-results)
 </t>
   </si>
   <si>
     <t>covid19TestResult</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-test-results)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-test-results)
 </t>
   </si>
   <si>
     <t>covid19ReasonTestNotPerformed</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-reason-test-not-performed)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-reason-test-not-performed)
 </t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="COVID-VACCINATION"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1693,14 +1693,14 @@
     <t>covid19Vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-vaccination)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-vaccination)
 </t>
   </si>
   <si>
     <t>covid19VaccinationAppointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/covid19-vaccination-appointment)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-vaccination-appointment)
 </t>
   </si>
 </sst>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-composition</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-composition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T19:52:53+00:00</t>
+    <t>2022-09-16T13:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1512,7 +1512,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="CLIENT-REGISTRATION"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1528,7 +1528,7 @@
     <t>covid19Patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-patient)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-patient)
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="COVID-ASSESSMENT"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1552,7 +1552,7 @@
     <t>covid19AssessmentEncounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-encounter)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-encounter)
 </t>
   </si>
   <si>
@@ -1565,7 +1565,7 @@
     <t>covid19Presentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-presentation)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-presentation)
 </t>
   </si>
   <si>
@@ -1578,21 +1578,21 @@
     <t>covid19Symptom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-symptom)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-symptom)
 </t>
   </si>
   <si>
     <t>covid19ConditionsComorbidity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-conditions-comorbidity)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-comorbidity)
 </t>
   </si>
   <si>
     <t>covid19Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-diagnosis)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-diagnosis)
 </t>
   </si>
   <si>
@@ -1602,21 +1602,21 @@
     <t>covid19VaccineDoseReceived</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-vaccine-dose-received)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-vaccine-dose-received)
 </t>
   </si>
   <si>
     <t>covid19AssessmentVaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-assessment-vaccination)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-assessment-vaccination)
 </t>
   </si>
   <si>
     <t>covid19MedicationRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-medication-request)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-medication-request)
 </t>
   </si>
   <si>
@@ -1628,7 +1628,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="LABORDER-MANAGEMENT"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1637,42 +1637,42 @@
     <t>covid19LabOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-lab-order)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-order)
 </t>
   </si>
   <si>
     <t>covid19Specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-specimen)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-specimen)
 </t>
   </si>
   <si>
     <t>covid19LabOrderCancellation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-lab-order-cancellation)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-order-cancellation)
 </t>
   </si>
   <si>
     <t>covid19LabResultsDiagnosticReport</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-lab-results)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-results)
 </t>
   </si>
   <si>
     <t>covid19TestResult</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-test-results)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-test-results)
 </t>
   </si>
   <si>
     <t>covid19ReasonTestNotPerformed</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-reason-test-not-performed)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-reason-test-not-performed)
 </t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-case-report-sections"/&gt;
+    &lt;system value="http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-case-report-sections"/&gt;
     &lt;code value="COVID-VACCINATION"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1693,14 +1693,14 @@
     <t>covid19Vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-vaccination)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-vaccination)
 </t>
   </si>
   <si>
     <t>covid19VaccinationAppointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-vaccination-appointment)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-vaccination-appointment)
 </t>
   </si>
 </sst>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:03:17+00:00</t>
+    <t>2022-09-16T14:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:32:23+00:00</t>
+    <t>2022-09-16T18:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T18:53:42+00:00</t>
+    <t>2022-09-16T19:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T19:44:32+00:00</t>
+    <t>2022-09-16T20:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T20:08:29+00:00</t>
+    <t>2022-09-19T15:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1632,13 +1632,6 @@
     &lt;code value="LABORDER-MANAGEMENT"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>covid19LabOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-order)
-</t>
   </si>
   <si>
     <t>covid19Specimen</t>
@@ -2006,7 +1999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN141"/>
+  <dimension ref="A1:AN140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16055,11 +16048,9 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16080,18 +16071,20 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>527</v>
+        <v>178</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16115,13 +16108,13 @@
         <v>76</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -16139,13 +16132,13 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>465</v>
@@ -16157,10 +16150,10 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16171,7 +16164,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16182,7 +16175,7 @@
         <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>76</v>
@@ -16194,20 +16187,18 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16231,13 +16222,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16255,16 +16246,16 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>100</v>
@@ -16273,10 +16264,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16287,9 +16278,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B125" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="C125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16298,7 +16291,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16310,17 +16303,15 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>477</v>
+        <v>407</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16369,7 +16360,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16378,10 +16369,10 @@
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>100</v>
+        <v>412</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>76</v>
@@ -16390,7 +16381,7 @@
         <v>413</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16401,11 +16392,9 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16426,13 +16415,13 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>408</v>
+        <v>158</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16483,28 +16472,28 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>406</v>
+        <v>159</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16515,18 +16504,18 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>76</v>
@@ -16538,15 +16527,17 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M127" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>76</v>
@@ -16595,19 +16586,19 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
@@ -16627,11 +16618,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>133</v>
+        <v>320</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16644,24 +16635,26 @@
         <v>76</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N128" s="2"/>
+      <c r="N128" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O128" t="s" s="2">
         <v>76</v>
       </c>
@@ -16709,7 +16702,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>166</v>
+        <v>323</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -16727,7 +16720,7 @@
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>76</v>
@@ -16741,42 +16734,42 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>137</v>
+        <v>422</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>143</v>
+        <v>423</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -16786,7 +16779,7 @@
         <v>76</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>76</v>
+        <v>527</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>76</v>
@@ -16825,28 +16818,28 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>323</v>
+        <v>418</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -16857,15 +16850,15 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>88</v>
@@ -16880,19 +16873,19 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16902,7 +16895,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16917,13 +16910,13 @@
         <v>76</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -16941,7 +16934,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -16959,10 +16952,10 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16973,7 +16966,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16981,10 +16974,10 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>76</v>
@@ -16996,19 +16989,17 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>428</v>
+        <v>287</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17018,7 +17009,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>530</v>
+        <v>76</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17033,13 +17024,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17057,13 +17048,13 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -17075,21 +17066,21 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17100,7 +17091,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17112,18 +17103,18 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17171,13 +17162,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17189,21 +17180,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>290</v>
+        <v>438</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17226,16 +17217,16 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>253</v>
+        <v>118</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17285,7 +17276,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -17294,7 +17285,7 @@
         <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>100</v>
@@ -17303,10 +17294,10 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
@@ -17317,7 +17308,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17340,18 +17331,20 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17375,13 +17368,13 @@
         <v>76</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
@@ -17399,7 +17392,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17408,7 +17401,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17417,21 +17410,21 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>444</v>
+        <v>160</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17454,19 +17447,19 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -17491,13 +17484,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17515,7 +17508,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17533,7 +17526,7 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>160</v>
@@ -17542,12 +17535,12 @@
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17555,10 +17548,10 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>76</v>
@@ -17570,20 +17563,18 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>76</v>
       </c>
@@ -17607,40 +17598,38 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB136" s="2"/>
       <c r="AC136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>100</v>
@@ -17649,10 +17638,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17665,7 +17654,9 @@
       <c r="A137" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B137" s="2"/>
+      <c r="B137" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="C137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17674,7 +17665,7 @@
         <v>88</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17686,7 +17677,7 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>462</v>
@@ -17733,14 +17724,16 @@
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB137" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>461</v>
@@ -17785,7 +17778,7 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>88</v>
@@ -17891,11 +17884,9 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17916,18 +17907,20 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>534</v>
+        <v>178</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N139" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17951,13 +17944,13 @@
         <v>76</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17975,13 +17968,13 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>465</v>
@@ -17993,10 +17986,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18007,7 +18000,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18018,7 +18011,7 @@
         <v>77</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>76</v>
@@ -18030,20 +18023,18 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18067,13 +18058,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18091,16 +18082,16 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18109,129 +18100,15 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN141" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T15:24:10+00:00</t>
+    <t>2022-09-21T08:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1632,6 +1632,13 @@
     &lt;code value="LABORDER-MANAGEMENT"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>covid19LabOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-order)
+</t>
   </si>
   <si>
     <t>covid19Specimen</t>
@@ -1999,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN140"/>
+  <dimension ref="A1:AN141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16048,9 +16055,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="C123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16071,20 +16080,18 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>178</v>
+        <v>527</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16108,13 +16115,13 @@
         <v>76</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -16132,13 +16139,13 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>465</v>
@@ -16150,10 +16157,10 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16164,7 +16171,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16175,7 +16182,7 @@
         <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>76</v>
@@ -16187,18 +16194,20 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16222,13 +16231,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16246,16 +16255,16 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>100</v>
@@ -16264,10 +16273,10 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16278,11 +16287,9 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16291,7 +16298,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16303,15 +16310,17 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16360,7 +16369,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16369,10 +16378,10 @@
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>76</v>
@@ -16381,7 +16390,7 @@
         <v>413</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16392,9 +16401,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B126" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="C126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16415,13 +16426,13 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16472,28 +16483,28 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16504,18 +16515,18 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>76</v>
@@ -16527,17 +16538,15 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>76</v>
@@ -16586,19 +16595,19 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
@@ -16618,11 +16627,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16635,26 +16644,24 @@
         <v>76</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N128" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
       </c>
@@ -16702,7 +16709,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -16720,7 +16727,7 @@
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>76</v>
@@ -16734,42 +16741,42 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -16779,7 +16786,7 @@
         <v>76</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>527</v>
+        <v>76</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>76</v>
@@ -16818,28 +16825,28 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -16850,15 +16857,15 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>88</v>
@@ -16873,19 +16880,19 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16895,7 +16902,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16910,13 +16917,13 @@
         <v>76</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -16934,7 +16941,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -16952,10 +16959,10 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16966,7 +16973,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16974,10 +16981,10 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>76</v>
@@ -16989,17 +16996,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N131" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17009,7 +17018,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17024,13 +17033,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17048,13 +17057,13 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -17066,21 +17075,21 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17091,7 +17100,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17103,18 +17112,18 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17162,13 +17171,13 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -17180,21 +17189,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17217,16 +17226,16 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17276,7 +17285,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -17285,7 +17294,7 @@
         <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>100</v>
@@ -17294,10 +17303,10 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
@@ -17308,7 +17317,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17331,20 +17340,18 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17368,13 +17375,13 @@
         <v>76</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
@@ -17392,7 +17399,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17401,7 +17408,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17410,21 +17417,21 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17447,19 +17454,19 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -17484,13 +17491,13 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
@@ -17508,7 +17515,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -17526,7 +17533,7 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>160</v>
@@ -17535,12 +17542,12 @@
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17548,10 +17555,10 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>76</v>
@@ -17563,18 +17570,20 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N136" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
       </c>
@@ -17598,38 +17607,40 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB136" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>100</v>
@@ -17638,10 +17649,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17654,9 +17665,7 @@
       <c r="A137" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B137" t="s" s="2">
-        <v>529</v>
-      </c>
+      <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17665,7 +17674,7 @@
         <v>88</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17677,7 +17686,7 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>462</v>
@@ -17724,16 +17733,14 @@
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB137" s="2"/>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>461</v>
@@ -17778,7 +17785,7 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>88</v>
@@ -17884,9 +17891,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B139" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="C139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17907,20 +17916,18 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>178</v>
+        <v>534</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17944,13 +17951,13 @@
         <v>76</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>76</v>
@@ -17968,13 +17975,13 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>465</v>
@@ -17986,10 +17993,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18000,7 +18007,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18011,7 +18018,7 @@
         <v>77</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>76</v>
@@ -18023,18 +18030,20 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18058,13 +18067,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18082,16 +18091,16 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18100,15 +18109,129 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK141" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL140" t="s" s="2">
+      <c r="AL141" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AM140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN140" t="s" s="2">
+      <c r="AM141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN141" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T08:12:07+00:00</t>
+    <t>2022-09-21T10:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5165" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T10:21:48+00:00</t>
+    <t>2022-09-22T08:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1546,7 +1546,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>covid19AssessmentEncounter</t>
@@ -1556,9 +1556,6 @@
 </t>
   </si>
   <si>
-    <t>covid19ReasonforAssessment</t>
-  </si>
-  <si>
     <t>otherReasonforAssessment</t>
   </si>
   <si>
@@ -1594,9 +1591,6 @@
   <si>
     <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-diagnosis)
 </t>
-  </si>
-  <si>
-    <t>hivDiagnosis</t>
   </si>
   <si>
     <t>covid19VaccineDoseReceived</t>
@@ -2006,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN141"/>
+  <dimension ref="A1:AN139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12489,10 +12483,10 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>76</v>
@@ -12605,7 +12599,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>88</v>
@@ -12620,7 +12614,7 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>253</v>
+        <v>496</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>462</v>
@@ -12714,14 +12708,14 @@
         <v>461</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>88</v>
@@ -12736,7 +12730,7 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>462</v>
@@ -12956,7 +12950,7 @@
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>76</v>
@@ -12968,7 +12962,7 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>253</v>
+        <v>500</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>462</v>
@@ -13062,7 +13056,7 @@
         <v>461</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>76</v>
@@ -13084,7 +13078,7 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>462</v>
@@ -13178,7 +13172,7 @@
         <v>461</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>76</v>
@@ -13188,7 +13182,7 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>76</v>
@@ -13200,7 +13194,7 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>462</v>
@@ -13294,14 +13288,14 @@
         <v>461</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>88</v>
@@ -13316,7 +13310,7 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>462</v>
@@ -13410,14 +13404,14 @@
         <v>461</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>88</v>
@@ -13432,7 +13426,7 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>253</v>
+        <v>508</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>462</v>
@@ -13526,14 +13520,14 @@
         <v>461</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>88</v>
@@ -13548,7 +13542,7 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>462</v>
@@ -13639,17 +13633,15 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>88</v>
@@ -13664,18 +13656,20 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>510</v>
+        <v>178</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
       </c>
@@ -13699,13 +13693,13 @@
         <v>76</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>76</v>
@@ -13723,13 +13717,13 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>465</v>
@@ -13741,10 +13735,10 @@
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13755,11 +13749,9 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
         <v>76</v>
       </c>
@@ -13768,7 +13760,7 @@
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -13780,16 +13772,16 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>512</v>
+        <v>76</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13839,7 +13831,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -13848,7 +13840,7 @@
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
@@ -13857,10 +13849,10 @@
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>
@@ -13871,9 +13863,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="C104" t="s" s="2">
         <v>76</v>
       </c>
@@ -13894,20 +13888,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>76</v>
       </c>
@@ -13931,13 +13921,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -13955,28 +13945,28 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>100</v>
+        <v>412</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
@@ -13987,7 +13977,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13998,7 +13988,7 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>76</v>
@@ -14010,17 +14000,15 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>477</v>
+        <v>157</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>76</v>
@@ -14069,28 +14057,28 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>476</v>
+        <v>159</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14101,20 +14089,18 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14126,15 +14112,17 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>407</v>
+        <v>135</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>76</v>
@@ -14183,7 +14171,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>406</v>
+        <v>166</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14195,16 +14183,16 @@
         <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>412</v>
+        <v>139</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14215,39 +14203,43 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14295,25 +14287,25 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>76</v>
@@ -14327,18 +14319,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>133</v>
+        <v>419</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>76</v>
@@ -14350,18 +14342,20 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14370,7 +14364,7 @@
         <v>76</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>76</v>
@@ -14409,28 +14403,28 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14441,42 +14435,42 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>321</v>
+        <v>425</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>137</v>
+        <v>427</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14486,7 +14480,7 @@
         <v>76</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>76</v>
+        <v>513</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>76</v>
@@ -14501,13 +14495,13 @@
         <v>76</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>76</v>
@@ -14525,28 +14519,28 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -14557,18 +14551,18 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>76</v>
@@ -14580,19 +14574,17 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>423</v>
+        <v>287</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
@@ -14602,7 +14594,7 @@
         <v>76</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>514</v>
+        <v>76</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>76</v>
@@ -14641,13 +14633,13 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -14659,21 +14651,21 @@
         <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14681,7 +14673,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>88</v>
@@ -14696,20 +14688,18 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>76</v>
       </c>
@@ -14718,7 +14708,7 @@
         <v>76</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>515</v>
+        <v>76</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>76</v>
@@ -14733,13 +14723,13 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>76</v>
@@ -14757,7 +14747,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -14775,10 +14765,10 @@
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>237</v>
+        <v>438</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14789,7 +14779,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14800,7 +14790,7 @@
         <v>77</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>76</v>
@@ -14812,18 +14802,18 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>76</v>
       </c>
@@ -14871,16 +14861,16 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>100</v>
@@ -14889,21 +14879,21 @@
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14926,18 +14916,20 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14961,13 +14953,13 @@
         <v>76</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>76</v>
@@ -14985,7 +14977,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15003,21 +14995,21 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>76</v>
+        <v>452</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15040,18 +15032,20 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15075,13 +15069,13 @@
         <v>76</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>76</v>
@@ -15099,7 +15093,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15108,7 +15102,7 @@
         <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>100</v>
@@ -15117,10 +15111,10 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>444</v>
+        <v>160</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15131,7 +15125,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15142,7 +15136,7 @@
         <v>77</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>76</v>
@@ -15154,20 +15148,18 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15191,40 +15183,38 @@
         <v>76</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB115" s="2"/>
       <c r="AC115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>100</v>
@@ -15233,23 +15223,25 @@
         <v>76</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="C116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15270,20 +15262,18 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>178</v>
+        <v>515</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15307,13 +15297,13 @@
         <v>76</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>76</v>
@@ -15331,16 +15321,16 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>100</v>
@@ -15349,10 +15339,10 @@
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -15365,7 +15355,9 @@
       <c r="A117" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="C117" t="s" s="2">
         <v>76</v>
       </c>
@@ -15374,7 +15366,7 @@
         <v>77</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>76</v>
@@ -15386,7 +15378,7 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>253</v>
+        <v>517</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>462</v>
@@ -15433,14 +15425,16 @@
         <v>76</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB117" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
         <v>461</v>
@@ -15478,7 +15472,7 @@
         <v>461</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>76</v>
@@ -15500,7 +15494,7 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>462</v>
@@ -15594,7 +15588,7 @@
         <v>461</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
@@ -15616,7 +15610,7 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>462</v>
@@ -15710,7 +15704,7 @@
         <v>461</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>76</v>
@@ -15732,7 +15726,7 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>462</v>
@@ -15826,7 +15820,7 @@
         <v>461</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>76</v>
@@ -15848,7 +15842,7 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>462</v>
@@ -15939,11 +15933,9 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
         <v>76</v>
       </c>
@@ -15964,18 +15956,20 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>525</v>
+        <v>178</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
       </c>
@@ -15999,13 +15993,13 @@
         <v>76</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>76</v>
@@ -16023,13 +16017,13 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>465</v>
@@ -16041,10 +16035,10 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16055,11 +16049,9 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16068,7 +16060,7 @@
         <v>77</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>76</v>
@@ -16080,16 +16072,16 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>527</v>
+        <v>76</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16139,7 +16131,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16148,7 +16140,7 @@
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>100</v>
@@ -16157,10 +16149,10 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16171,9 +16163,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B124" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="C124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16194,20 +16188,16 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16231,13 +16221,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16255,28 +16245,28 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>100</v>
+        <v>412</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16287,7 +16277,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16298,7 +16288,7 @@
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16310,17 +16300,15 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>477</v>
+        <v>157</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16369,28 +16357,28 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>476</v>
+        <v>159</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>480</v>
+        <v>76</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16401,20 +16389,18 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16426,15 +16412,17 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>407</v>
+        <v>135</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16483,7 +16471,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>406</v>
+        <v>166</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16495,16 +16483,16 @@
         <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>412</v>
+        <v>139</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16515,39 +16503,43 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>76</v>
       </c>
@@ -16595,25 +16587,25 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>76</v>
@@ -16627,18 +16619,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>133</v>
+        <v>419</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>76</v>
@@ -16650,18 +16642,20 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>162</v>
+        <v>421</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N128" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O128" t="s" s="2">
         <v>76</v>
       </c>
@@ -16670,7 +16664,7 @@
         <v>76</v>
       </c>
       <c r="R128" t="s" s="2">
-        <v>76</v>
+        <v>527</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>76</v>
@@ -16709,28 +16703,28 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
@@ -16741,42 +16735,42 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>321</v>
+        <v>425</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>137</v>
+        <v>427</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -16786,7 +16780,7 @@
         <v>76</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>76</v>
+        <v>528</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>76</v>
@@ -16801,13 +16795,13 @@
         <v>76</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>76</v>
@@ -16825,28 +16819,28 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -16857,18 +16851,18 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
@@ -16880,19 +16874,17 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>423</v>
+        <v>287</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -16902,7 +16894,7 @@
         <v>76</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>529</v>
+        <v>76</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>76</v>
@@ -16941,13 +16933,13 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -16959,21 +16951,21 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16981,7 +16973,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>88</v>
@@ -16996,20 +16988,18 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>76</v>
       </c>
@@ -17018,7 +17008,7 @@
         <v>76</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>530</v>
+        <v>76</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>76</v>
@@ -17033,13 +17023,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17057,7 +17047,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17075,10 +17065,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>237</v>
+        <v>438</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17089,7 +17079,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17100,7 +17090,7 @@
         <v>77</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>76</v>
@@ -17112,18 +17102,18 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17171,16 +17161,16 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>100</v>
@@ -17189,21 +17179,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17226,18 +17216,20 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
       </c>
@@ -17261,13 +17253,13 @@
         <v>76</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>76</v>
@@ -17285,7 +17277,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -17303,21 +17295,21 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>76</v>
+        <v>452</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17340,18 +17332,20 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17375,13 +17369,13 @@
         <v>76</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
@@ -17399,7 +17393,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17408,7 +17402,7 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
@@ -17417,10 +17411,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>444</v>
+        <v>160</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17431,7 +17425,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17439,10 +17433,10 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>76</v>
@@ -17454,20 +17448,18 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17491,40 +17483,38 @@
         <v>76</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB135" s="2"/>
       <c r="AC135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>100</v>
@@ -17533,29 +17523,31 @@
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B136" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="C136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>88</v>
@@ -17570,20 +17562,18 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>76</v>
       </c>
@@ -17607,13 +17597,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>459</v>
+        <v>76</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17631,16 +17621,16 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>100</v>
@@ -17649,10 +17639,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17665,16 +17655,18 @@
       <c r="A137" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B137" s="2"/>
+      <c r="B137" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="C137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17686,7 +17678,7 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>253</v>
+        <v>532</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>462</v>
@@ -17733,14 +17725,16 @@
         <v>76</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB137" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>461</v>
@@ -17775,17 +17769,15 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>88</v>
@@ -17800,18 +17792,20 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>532</v>
+        <v>178</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17835,13 +17829,13 @@
         <v>76</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>76</v>
@@ -17859,13 +17853,13 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>465</v>
@@ -17877,10 +17871,10 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17891,11 +17885,9 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
         <v>76</v>
       </c>
@@ -17904,7 +17896,7 @@
         <v>77</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>76</v>
@@ -17916,16 +17908,16 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>534</v>
+        <v>76</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -17975,7 +17967,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
@@ -17984,7 +17976,7 @@
         <v>78</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>100</v>
@@ -17993,245 +17985,15 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN141" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T08:03:20+00:00</t>
+    <t>2022-10-06T11:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:19:36+00:00</t>
+    <t>2022-11-03T06:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -730,7 +730,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org/loinc"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
     &lt;code value="95412-3"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -774,7 +774,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org/loinc"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
     &lt;code value="75218-8"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/branches/master/StructureDefinition-covid19-composition.xlsx
+++ b/branches/master/StructureDefinition-covid19-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5054" uniqueCount="530">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:58:58+00:00</t>
+    <t>2022-11-03T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -730,7 +730,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
+    &lt;system value="https://loinc.org"/&gt;
     &lt;code value="95412-3"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -774,7 +774,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
+    &lt;system value="https://loinc.org"/&gt;
     &lt;code value="75218-8"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1635,13 +1635,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-specimen)
-</t>
-  </si>
-  <si>
-    <t>covid19LabOrderCancellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-lab-order-cancellation)
 </t>
   </si>
   <si>
@@ -1996,7 +1989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN139"/>
+  <dimension ref="A1:AN138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15813,11 +15806,9 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
         <v>76</v>
       </c>
@@ -15838,18 +15829,20 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>524</v>
+        <v>177</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>76</v>
       </c>
@@ -15873,13 +15866,13 @@
         <v>76</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>76</v>
@@ -15897,13 +15890,13 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>464</v>
@@ -15915,10 +15908,10 @@
         <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
@@ -15929,7 +15922,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15940,7 +15933,7 @@
         <v>77</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>76</v>
@@ -15952,20 +15945,18 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>76</v>
       </c>
@@ -15989,13 +15980,13 @@
         <v>76</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>76</v>
@@ -16013,16 +16004,16 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>99</v>
@@ -16031,10 +16022,10 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16045,9 +16036,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="C123" t="s" s="2">
         <v>76</v>
       </c>
@@ -16056,7 +16049,7 @@
         <v>77</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>76</v>
@@ -16068,17 +16061,15 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>76</v>
@@ -16127,7 +16118,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16136,10 +16127,10 @@
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>99</v>
+        <v>411</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>76</v>
@@ -16148,7 +16139,7 @@
         <v>412</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16159,11 +16150,9 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16184,13 +16173,13 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16241,28 +16230,28 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16273,18 +16262,18 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>76</v>
@@ -16296,15 +16285,17 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16353,19 +16344,19 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>76</v>
@@ -16385,11 +16376,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16402,24 +16393,26 @@
         <v>76</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N126" s="2"/>
+      <c r="N126" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16467,7 +16460,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16485,7 +16478,7 @@
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>76</v>
@@ -16499,42 +16492,42 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>136</v>
+        <v>421</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>142</v>
+        <v>422</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>76</v>
@@ -16544,7 +16537,7 @@
         <v>76</v>
       </c>
       <c r="R127" t="s" s="2">
-        <v>76</v>
+        <v>524</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>76</v>
@@ -16583,28 +16576,28 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -16615,15 +16608,15 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>87</v>
@@ -16638,19 +16631,19 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16660,7 +16653,7 @@
         <v>76</v>
       </c>
       <c r="R128" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>76</v>
@@ -16675,13 +16668,13 @@
         <v>76</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>76</v>
@@ -16699,7 +16692,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -16717,10 +16710,10 @@
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
@@ -16731,7 +16724,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16739,10 +16732,10 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>76</v>
@@ -16754,19 +16747,17 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -16776,7 +16767,7 @@
         <v>76</v>
       </c>
       <c r="R129" t="s" s="2">
-        <v>527</v>
+        <v>76</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>76</v>
@@ -16791,13 +16782,13 @@
         <v>76</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>76</v>
@@ -16815,13 +16806,13 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
@@ -16833,21 +16824,21 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16858,7 +16849,7 @@
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
@@ -16870,18 +16861,18 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>76</v>
       </c>
@@ -16929,13 +16920,13 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -16947,21 +16938,21 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16984,16 +16975,16 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17043,7 +17034,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17052,7 +17043,7 @@
         <v>87</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>99</v>
@@ -17061,10 +17052,10 @@
         <v>76</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17075,7 +17066,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17098,18 +17089,20 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17133,13 +17126,13 @@
         <v>76</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>76</v>
@@ -17157,7 +17150,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -17166,7 +17159,7 @@
         <v>87</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>99</v>
@@ -17175,21 +17168,21 @@
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17212,19 +17205,19 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
@@ -17249,13 +17242,13 @@
         <v>76</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>76</v>
@@ -17273,7 +17266,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -17291,7 +17284,7 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>159</v>
@@ -17300,12 +17293,12 @@
         <v>76</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17313,10 +17306,10 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>76</v>
@@ -17328,20 +17321,18 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17365,40 +17356,38 @@
         <v>76</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB134" s="2"/>
       <c r="AC134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>99</v>
@@ -17407,10 +17396,10 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17423,7 +17412,9 @@
       <c r="A135" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B135" s="2"/>
+      <c r="B135" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="C135" t="s" s="2">
         <v>76</v>
       </c>
@@ -17432,7 +17423,7 @@
         <v>87</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>76</v>
@@ -17444,7 +17435,7 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>252</v>
+        <v>527</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>461</v>
@@ -17491,14 +17482,16 @@
         <v>76</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AB135" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
         <v>460</v>
@@ -17543,7 +17536,7 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>87</v>
@@ -17649,11 +17642,9 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17674,18 +17665,20 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>531</v>
+        <v>177</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N137" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
       </c>
@@ -17709,13 +17702,13 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
@@ -17733,13 +17726,13 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>464</v>
@@ -17751,10 +17744,10 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17765,7 +17758,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17776,7 +17769,7 @@
         <v>77</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17788,20 +17781,18 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17825,13 +17816,13 @@
         <v>76</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>76</v>
@@ -17849,16 +17840,16 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>99</v>
@@ -17867,129 +17858,15 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN139" t="s" s="2">
         <v>76</v>
       </c>
     </row>
